--- a/EfficiencyStudy/results/powhegMiNNLO/report_TopHN_systematics.xlsx
+++ b/EfficiencyStudy/results/powhegMiNNLO/report_TopHN_systematics.xlsx
@@ -1592,52 +1592,52 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.852</t>
+          <t>0.854</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.002 (0.270%)</t>
+          <t>0.002 (0.258%)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.852 (0.000%)</t>
+          <t>0.852 (-0.269%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.854 (0.293%)</t>
+          <t>0.854 (0.023%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.846 (-0.716%)</t>
+          <t>0.846 (-0.983%)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.852 (0.012%)</t>
+          <t>0.852 (-0.258%)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.851 (-0.153%)</t>
+          <t>0.851 (-0.421%)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.852 (0.035%)</t>
+          <t>0.852 (-0.234%)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.852 (0.023%)</t>
+          <t>0.852 (-0.246%)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.007 (0.83%)</t>
+          <t>0.010 (1.21%)</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.909</t>
+          <t>0.907</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6974,42 +6974,42 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.907 (-0.308%)</t>
+          <t>0.907 (0.000%)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.907 (-0.286%)</t>
+          <t>0.907 (0.022%)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.909 (-0.011%)</t>
+          <t>0.907 (0.011%)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.909 (-0.011%)</t>
+          <t>0.907 (0.000%)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.909 (-0.022%)</t>
+          <t>0.906 (-0.022%)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.910 (0.022%)</t>
+          <t>0.907 (0.011%)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.909 (0.000%)</t>
+          <t>0.907 (-0.011%)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.004 (0.42%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.917</t>
+          <t>0.911</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -7034,42 +7034,42 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.911 (-0.622%)</t>
+          <t>0.911 (0.000%)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.918 (0.153%)</t>
+          <t>0.911 (0.066%)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.916 (-0.033%)</t>
+          <t>0.911 (0.022%)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.917 (0.000%)</t>
+          <t>0.911 (0.011%)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.911 (-0.611%)</t>
+          <t>0.911 (0.011%)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.911 (-0.600%)</t>
+          <t>0.911 (0.022%)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.916 (-0.011%)</t>
+          <t>0.911 (-0.011%)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.010 (1.07%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -9200,7 +9200,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.960</t>
+          <t>0.963</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -9210,42 +9210,42 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.963 (0.366%)</t>
+          <t>0.963 (0.057%)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.964 (0.413%)</t>
+          <t>0.964 (0.104%)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.960 (0.034%)</t>
+          <t>0.963 (0.012%)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.960 (0.022%)</t>
+          <t>0.963 (0.011%)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.959 (-0.024%)</t>
+          <t>0.962 (-0.024%)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.959 (-0.056%)</t>
+          <t>0.962 (-0.045%)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.959 (-0.023%)</t>
+          <t>0.962 (-0.012%)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.005 (0.56%)</t>
+          <t>0.001 (0.15%)</t>
         </is>
       </c>
     </row>
@@ -9260,7 +9260,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.954</t>
+          <t>0.960</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -9270,42 +9270,42 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.960 (0.695%)</t>
+          <t>0.960 (0.069%)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.953 (-0.061%)</t>
+          <t>0.960 (0.026%)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.959 (0.571%)</t>
+          <t>0.965 (0.516%)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.954 (0.011%)</t>
+          <t>0.960 (0.000%)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.966 (1.248%)</t>
+          <t>0.966 (0.618%)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.960 (0.627%)</t>
+          <t>0.960 (0.001%)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.954 (0.011%)</t>
+          <t>0.960 (0.011%)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.016 (1.67%)</t>
+          <t>0.008 (0.82%)</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.850 (-0.828%)</t>
+          <t>0.850 (-0.875%)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.009 (1.02%)</t>
+          <t>0.009 (1.06%)</t>
         </is>
       </c>
     </row>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.906 (0.689%)</t>
+          <t>0.899 (-0.078%)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.907 (0.711%)</t>
+          <t>0.899 (-0.089%)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.009 (0.99%)</t>
+          <t>0.001 (0.12%)</t>
         </is>
       </c>
     </row>
@@ -12772,52 +12772,52 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.994</t>
+          <t>0.996</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.003 (0.270%)</t>
+          <t>0.003 (0.258%)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.994 (0.000%)</t>
+          <t>0.994 (-0.269%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.991 (-0.288%)</t>
+          <t>0.991 (-0.556%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.995 (0.113%)</t>
+          <t>0.995 (-0.110%)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.994 (0.035%)</t>
+          <t>0.994 (-0.234%)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.993 (-0.036%)</t>
+          <t>0.993 (-0.305%)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.994 (0.000%)</t>
+          <t>0.994 (-0.269%)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.994 (0.058%)</t>
+          <t>0.994 (-0.211%)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.004 (0.42%)</t>
+          <t>0.008 (0.85%)</t>
         </is>
       </c>
     </row>
@@ -13697,7 +13697,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.975 (-0.673%)</t>
+          <t>0.983 (0.089%)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -13707,7 +13707,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.976 (-0.594%)</t>
+          <t>0.984 (0.202%)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.009 (0.92%)</t>
+          <t>0.003 (0.30%)</t>
         </is>
       </c>
     </row>
@@ -15933,7 +15933,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.880 (0.595%)</t>
+          <t>0.875 (0.023%)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -15953,7 +15953,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.007 (0.86%)</t>
+          <t>0.005 (0.62%)</t>
         </is>
       </c>
     </row>
@@ -18144,7 +18144,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.907</t>
+          <t>0.903</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -18154,42 +18154,42 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.903 (-0.386%)</t>
+          <t>0.903 (0.000%)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.907 (0.066%)</t>
+          <t>0.900 (-0.343%)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.903 (-0.397%)</t>
+          <t>0.903 (-0.011%)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.907 (0.000%)</t>
+          <t>0.903 (0.011%)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.907 (0.044%)</t>
+          <t>0.904 (0.066%)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.907 (0.000%)</t>
+          <t>0.903 (0.000%)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.907 (-0.011%)</t>
+          <t>0.903 (-0.022%)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.005 (0.56%)</t>
+          <t>0.003 (0.35%)</t>
         </is>
       </c>
     </row>
@@ -18219,7 +18219,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.910 (0.764%)</t>
+          <t>0.903 (-0.066%)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -18229,7 +18229,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.909 (0.620%)</t>
+          <t>0.903 (0.011%)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -18244,12 +18244,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.909 (0.620%)</t>
+          <t>0.903 (-0.033%)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.011 (1.26%)</t>
+          <t>0.004 (0.49%)</t>
         </is>
       </c>
     </row>
@@ -18304,12 +18304,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.921 (-0.152%)</t>
+          <t>0.928 (0.629%)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.004 (0.41%)</t>
+          <t>0.007 (0.74%)</t>
         </is>
       </c>
     </row>
@@ -20380,7 +20380,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.964</t>
+          <t>0.968</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -20390,42 +20390,42 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.969 (0.491%)</t>
+          <t>0.969 (0.103%)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.969 (0.505%)</t>
+          <t>0.977 (0.918%)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.968 (0.399%)</t>
+          <t>0.968 (0.011%)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.970 (0.595%)</t>
+          <t>0.968 (0.012%)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.965 (0.024%)</t>
+          <t>0.968 (0.002%)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.965 (0.091%)</t>
+          <t>0.969 (0.091%)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.964 (-0.012%)</t>
+          <t>0.968 (-0.001%)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.010 (1.02%)</t>
+          <t>0.009 (0.94%)</t>
         </is>
       </c>
     </row>
@@ -20455,7 +20455,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.963 (-0.815%)</t>
+          <t>0.971 (0.009%)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -20465,7 +20465,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.975 (0.484%)</t>
+          <t>0.981 (1.095%)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -20480,12 +20480,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.964 (-0.684%)</t>
+          <t>0.970 (-0.035%)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.013 (1.38%)</t>
+          <t>0.013 (1.32%)</t>
         </is>
       </c>
     </row>
@@ -20540,12 +20540,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.953 (0.599%)</t>
+          <t>0.946 (-0.181%)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.031 (3.23%)</t>
+          <t>0.030 (3.18%)</t>
         </is>
       </c>
     </row>
@@ -22776,12 +22776,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.876 (-0.023%)</t>
+          <t>0.885 (1.108%)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.017 (1.96%)</t>
+          <t>0.020 (2.25%)</t>
         </is>
       </c>
     </row>
@@ -24872,12 +24872,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.885 (0.454%)</t>
+          <t>0.881 (0.011%)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.885 (0.465%)</t>
+          <t>0.881 (0.000%)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -24897,7 +24897,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.007 (0.78%)</t>
+          <t>0.004 (0.42%)</t>
         </is>
       </c>
     </row>
@@ -24927,7 +24927,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.895 (1.164%)</t>
+          <t>0.886 (0.102%)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -24937,7 +24937,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.893 (0.938%)</t>
+          <t>0.885 (0.023%)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -24947,7 +24947,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.894 (1.006%)</t>
+          <t>0.885 (0.045%)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -24957,7 +24957,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.016 (1.81%)</t>
+          <t>0.002 (0.19%)</t>
         </is>
       </c>
     </row>
@@ -27108,12 +27108,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.996 (-0.418%)</t>
+          <t>1.000 (0.023%)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.995 (-0.474%)</t>
+          <t>1.000 (-0.011%)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -27133,7 +27133,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.011 (1.05%)</t>
+          <t>0.008 (0.84%)</t>
         </is>
       </c>
     </row>
@@ -27163,7 +27163,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.986 (-1.496%)</t>
+          <t>0.996 (-0.451%)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -27173,7 +27173,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.992 (-0.918%)</t>
+          <t>1.001 (-0.011%)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -27183,7 +27183,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.992 (-0.929%)</t>
+          <t>1.001 (0.023%)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -27193,7 +27193,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.021 (2.13%)</t>
+          <t>0.009 (0.90%)</t>
         </is>
       </c>
     </row>
@@ -27248,12 +27248,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.966 (-0.067%)</t>
+          <t>0.977 (1.063%)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.019 (1.99%)</t>
+          <t>0.022 (2.26%)</t>
         </is>
       </c>
     </row>

--- a/EfficiencyStudy/results/powhegMiNNLO/report_TopHN_systematics.xlsx
+++ b/EfficiencyStudy/results/powhegMiNNLO/report_TopHN_systematics.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.019 (2.24%)</t>
+          <t>0.016 (1.87%)</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.023 (2.66%)</t>
+          <t>0.018 (2.06%)</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.020 (2.22%)</t>
+          <t>0.014 (1.61%)</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.009 (1.02%)</t>
+          <t>0.008 (0.91%)</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>0.001 (0.12%)</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.004 (0.46%)</t>
+          <t>0.004 (0.44%)</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.015 (1.80%)</t>
+          <t>0.012 (1.48%)</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.019 (2.23%)</t>
+          <t>0.016 (1.81%)</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.021 (2.34%)</t>
+          <t>0.015 (1.73%)</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.010 (1.14%)</t>
+          <t>0.010 (1.10%)</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>0.001 (0.07%)</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>0.002 (0.17%)</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.010 (1.21%)</t>
+          <t>0.010 (1.16%)</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.012 (1.32%)</t>
+          <t>0.010 (1.13%)</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.014 (1.55%)</t>
+          <t>0.010 (1.16%)</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.008 (0.90%)</t>
+          <t>0.007 (0.81%)</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>0.002 (0.18%)</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>0.001 (0.14%)</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.007 (0.71%)</t>
+          <t>0.007 (0.70%)</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.005 (0.66%)</t>
+          <t>0.005 (0.65%)</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.007 (0.84%)</t>
+          <t>0.006 (0.80%)</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.007 (0.87%)</t>
+          <t>0.006 (0.73%)</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.004 (0.44%)</t>
+          <t>0.004 (0.43%)</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.002 (0.25%)</t>
+          <t>0.002 (0.24%)</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.003 (0.36%)</t>
+          <t>0.003 (0.35%)</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.035 (3.97%)</t>
+          <t>0.035 (3.94%)</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.019 (2.47%)</t>
+          <t>0.015 (1.86%)</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.024 (2.87%)</t>
+          <t>0.018 (2.11%)</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.020 (2.35%)</t>
+          <t>0.014 (1.67%)</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.009 (0.97%)</t>
+          <t>0.008 (0.94%)</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.003 (0.29%)</t>
+          <t>0.003 (0.27%)</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.015 (1.83%)</t>
+          <t>0.011 (1.40%)</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.019 (2.29%)</t>
+          <t>0.015 (1.84%)</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.021 (2.41%)</t>
+          <t>0.015 (1.76%)</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.010 (1.16%)</t>
+          <t>0.009 (1.03%)</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>0.001 (0.13%)</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.002 (0.17%)</t>
+          <t>0.002 (0.16%)</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.009 (1.15%)</t>
+          <t>0.008 (1.05%)</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.012 (1.50%)</t>
+          <t>0.010 (1.24%)</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.015 (1.73%)</t>
+          <t>0.011 (1.34%)</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.009 (1.04%)</t>
+          <t>0.009 (1.00%)</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>0.002 (0.21%)</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.003 (0.40%)</t>
+          <t>0.003 (0.37%)</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.008 (1.14%)</t>
+          <t>0.008 (1.07%)</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.009 (1.12%)</t>
+          <t>0.007 (0.87%)</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.006 (0.71%)</t>
+          <t>0.005 (0.62%)</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.002 (0.20%)</t>
+          <t>0.002 (0.19%)</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.002 (0.17%)</t>
+          <t>0.001 (0.17%)</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.024 (2.67%)</t>
+          <t>0.020 (2.25%)</t>
         </is>
       </c>
     </row>
@@ -4994,42 +4994,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.828 (-0.133%)</t>
+          <t>0.828 (99.867%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.838 (1.097%)</t>
+          <t>0.838 (101.097%)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.815 (-1.676%)</t>
+          <t>0.815 (-2.774%)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.828 (-0.145%)</t>
+          <t>0.828 (99.855%)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.829 (-0.084%)</t>
+          <t>0.829 (0.060%)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.829 (-0.012%)</t>
+          <t>0.829 (99.988%)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.829 (-0.012%)</t>
+          <t>0.829 (0.000%)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.017 (2.02%)</t>
+          <t>1.662 (200.41%)</t>
         </is>
       </c>
     </row>
@@ -5054,42 +5054,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.859 (-0.406%)</t>
+          <t>0.859 (99.594%)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.877 (1.680%)</t>
+          <t>0.877 (101.680%)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.842 (-2.445%)</t>
+          <t>0.842 (-4.126%)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.860 (-0.394%)</t>
+          <t>0.860 (99.606%)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.864 (0.116%)</t>
+          <t>0.864 (0.510%)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.860 (-0.394%)</t>
+          <t>0.860 (99.606%)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.860 (-0.371%)</t>
+          <t>0.860 (0.023%)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.026 (3.07%)</t>
+          <t>1.728 (200.25%)</t>
         </is>
       </c>
     </row>
@@ -5114,42 +5114,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.886 (0.000%)</t>
+          <t>0.886 (100.000%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.898 (1.434%)</t>
+          <t>0.898 (101.434%)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.873 (-1.468%)</t>
+          <t>0.873 (-2.902%)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.886 (0.023%)</t>
+          <t>0.886 (100.023%)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.876 (-1.050%)</t>
+          <t>0.876 (-1.073%)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>0.886 (100.011%)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>0.886 (0.011%)</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.886 (0.023%)</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.020 (2.31%)</t>
+          <t>1.778 (200.74%)</t>
         </is>
       </c>
     </row>
@@ -5174,42 +5174,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.913 (-0.197%)</t>
+          <t>0.913 (99.803%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.920 (0.514%)</t>
+          <t>0.920 (100.514%)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.911 (-0.426%)</t>
+          <t>0.911 (-0.940%)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.913 (-0.175%)</t>
+          <t>0.913 (99.825%)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.915 (0.022%)</t>
+          <t>0.915 (0.197%)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.913 (-0.186%)</t>
+          <t>0.913 (99.814%)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.913 (-0.164%)</t>
+          <t>0.913 (0.022%)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.007 (0.76%)</t>
+          <t>1.830 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -5234,42 +5234,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>0.949 (99.979%)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.950 (100.137%)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.948 (-0.200%)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.949 (99.989%)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.949 (0.011%)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.949 (100.011%)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>0.949 (-0.021%)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.950 (0.137%)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.948 (-0.063%)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.949 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.949 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.949 (0.011%)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0.949 (-0.011%)</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>1.899 (200.06%)</t>
         </is>
       </c>
     </row>
@@ -5294,42 +5294,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.969 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.969 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.969 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.969 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.969 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.969 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.969 (-0.010%)</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.969 (0.021%)</t>
+          <t>0.969 (100.021%)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.969 (-0.010%)</t>
+          <t>0.969 (-0.031%)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.939 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -5354,42 +5354,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>0.973 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.973 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.973 (-0.041%)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.973 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>0.973 (-0.010%)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.973 (0.021%)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.973 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>0.973 (-0.021%)</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.973 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.973 (-0.021%)</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0.973 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0.973 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.945 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -5414,42 +5414,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>0.975 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.975 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.975 (-0.031%)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.975 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>0.975 (-0.010%)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.975 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.975 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>0.975 (-0.021%)</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.975 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.975 (-0.021%)</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0.975 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0.975 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.949 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -5474,42 +5474,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>0.976 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.976 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>0.976 (-0.010%)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.976 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.976 (-0.010%)</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.976 (-0.010%)</t>
+          <t>0.976 (99.990%)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.978 (0.143%)</t>
+          <t>0.978 (0.154%)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.976 (-0.020%)</t>
+          <t>0.976 (99.980%)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.977 (0.020%)</t>
+          <t>0.977 (0.041%)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>1.953 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -5534,42 +5534,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.834 (0.000%)</t>
+          <t>0.834 (100.000%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.842 (0.947%)</t>
+          <t>0.842 (100.947%)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.826 (-0.959%)</t>
+          <t>0.826 (-1.907%)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.834 (-0.036%)</t>
+          <t>0.834 (99.964%)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.833 (-0.072%)</t>
+          <t>0.833 (-0.036%)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.834 (-0.036%)</t>
+          <t>0.834 (99.964%)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.834 (0.000%)</t>
+          <t>0.834 (0.036%)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.011 (1.35%)</t>
+          <t>1.671 (200.44%)</t>
         </is>
       </c>
     </row>
@@ -5594,42 +5594,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.870 (0.000%)</t>
+          <t>0.870 (100.000%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.880 (1.196%)</t>
+          <t>0.880 (101.196%)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.857 (-1.449%)</t>
+          <t>0.857 (-2.645%)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.870 (-0.011%)</t>
+          <t>0.870 (99.989%)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.869 (-0.103%)</t>
+          <t>0.869 (-0.092%)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.870 (-0.011%)</t>
+          <t>0.870 (99.989%)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.870 (0.011%)</t>
+          <t>0.870 (0.023%)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.016 (1.88%)</t>
+          <t>1.745 (200.59%)</t>
         </is>
       </c>
     </row>
@@ -5654,42 +5654,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.883 (-0.428%)</t>
+          <t>0.883 (99.572%)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.896 (0.969%)</t>
+          <t>0.896 (100.969%)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.870 (-1.939%)</t>
+          <t>0.870 (-2.908%)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.887 (-0.023%)</t>
+          <t>0.887 (99.977%)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.887 (-0.023%)</t>
+          <t>0.887 (0.000%)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.884 (-0.372%)</t>
+          <t>0.884 (99.628%)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.887 (-0.034%)</t>
+          <t>0.887 (0.338%)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.020 (2.24%)</t>
+          <t>1.775 (200.08%)</t>
         </is>
       </c>
     </row>
@@ -5714,42 +5714,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.905 (0.000%)</t>
+          <t>0.905 (100.000%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.912 (0.784%)</t>
+          <t>0.912 (100.784%)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.901 (-0.497%)</t>
+          <t>0.901 (-1.281%)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.905 (-0.011%)</t>
+          <t>0.905 (99.989%)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.906 (0.022%)</t>
+          <t>0.906 (0.033%)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.905 (-0.033%)</t>
+          <t>0.905 (99.967%)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.905 (0.011%)</t>
+          <t>0.905 (0.044%)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.008 (0.93%)</t>
+          <t>1.814 (200.37%)</t>
         </is>
       </c>
     </row>
@@ -5774,42 +5774,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.939 (-0.021%)</t>
+          <t>0.939 (99.979%)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.941 (0.213%)</t>
+          <t>0.941 (100.213%)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.938 (-0.085%)</t>
+          <t>0.938 (-0.298%)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.939 (-0.032%)</t>
+          <t>0.939 (99.968%)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.939 (0.000%)</t>
+          <t>0.939 (0.032%)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.939 (0.011%)</t>
+          <t>0.939 (100.011%)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.939 (0.000%)</t>
+          <t>0.939 (-0.011%)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.002 (0.23%)</t>
+          <t>1.878 (200.09%)</t>
         </is>
       </c>
     </row>
@@ -5834,42 +5834,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.964 (0.010%)</t>
+          <t>0.964 (100.010%)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.964 (0.021%)</t>
+          <t>0.964 (100.021%)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.964 (-0.010%)</t>
+          <t>0.964 (-0.031%)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>0.964 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>0.964 (0.000%)</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.964 (0.000%)</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.964 (0.031%)</t>
+          <t>0.964 (100.031%)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.964 (0.000%)</t>
+          <t>0.964 (-0.031%)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.928 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -5894,22 +5894,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.967 (0.000%)</t>
+          <t>0.967 (100.000%)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.967 (0.031%)</t>
+          <t>0.967 (100.031%)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.966 (-0.083%)</t>
+          <t>0.966 (-0.114%)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.967 (0.000%)</t>
+          <t>0.967 (100.000%)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -5919,17 +5919,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.967 (0.010%)</t>
+          <t>0.967 (100.010%)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.967 (-0.021%)</t>
+          <t>0.967 (-0.031%)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>1.934 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -5954,42 +5954,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.967 (-0.103%)</t>
+          <t>0.967 (99.897%)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.969 (0.031%)</t>
+          <t>0.969 (100.031%)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.967 (-0.145%)</t>
+          <t>0.967 (-0.176%)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>0.968 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.968 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0.968 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>0.968 (-0.010%)</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0.968 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>1.936 (199.96%)</t>
         </is>
       </c>
     </row>
@@ -6014,42 +6014,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.969 (-0.093%)</t>
+          <t>0.969 (99.907%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.970 (0.031%)</t>
+          <t>0.970 (100.031%)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.969 (-0.041%)</t>
+          <t>0.969 (-0.072%)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>0.970 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>0.970 (0.010%)</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.970 (0.021%)</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.970 (0.031%)</t>
+          <t>0.970 (100.031%)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.970 (0.010%)</t>
+          <t>0.970 (-0.021%)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>1.939 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -6074,42 +6074,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.820 (-0.098%)</t>
+          <t>0.820 (99.902%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.826 (0.609%)</t>
+          <t>0.826 (100.609%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.814 (-0.804%)</t>
+          <t>0.814 (-1.414%)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.820 (-0.037%)</t>
+          <t>0.820 (99.963%)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.820 (-0.024%)</t>
+          <t>0.820 (0.012%)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.821 (0.049%)</t>
+          <t>0.821 (100.049%)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.820 (-0.012%)</t>
+          <t>0.820 (-0.061%)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.008 (1.02%)</t>
+          <t>1.643 (200.26%)</t>
         </is>
       </c>
     </row>
@@ -6134,42 +6134,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.850 (-0.118%)</t>
+          <t>0.850 (99.882%)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.858 (0.870%)</t>
+          <t>0.858 (100.870%)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.841 (-1.117%)</t>
+          <t>0.841 (-1.987%)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.850 (-0.035%)</t>
+          <t>0.850 (99.965%)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>0.851 (0.024%)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.851 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>0.851 (-0.012%)</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0.851 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0.851 (-0.012%)</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.012 (1.42%)</t>
+          <t>1.704 (200.36%)</t>
         </is>
       </c>
     </row>
@@ -6194,42 +6194,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.874 (-0.046%)</t>
+          <t>0.874 (99.954%)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.882 (0.915%)</t>
+          <t>0.882 (100.915%)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.865 (-1.098%)</t>
+          <t>0.865 (-2.013%)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>0.874 (99.977%)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.874 (0.000%)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.874 (100.011%)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>0.874 (-0.023%)</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.874 (-0.023%)</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0.874 (0.011%)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0.874 (-0.011%)</t>
-        </is>
-      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.013 (1.43%)</t>
+          <t>1.752 (200.43%)</t>
         </is>
       </c>
     </row>
@@ -6254,42 +6254,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.896 (-0.067%)</t>
+          <t>0.896 (99.933%)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.903 (0.758%)</t>
+          <t>0.903 (100.758%)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.894 (-0.323%)</t>
+          <t>0.894 (-1.082%)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.896 (-0.045%)</t>
+          <t>0.896 (99.955%)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>0.896 (0.033%)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.896 (99.978%)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>0.896 (-0.011%)</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>0.896 (-0.022%)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0.896 (-0.033%)</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.007 (0.83%)</t>
+          <t>1.796 (200.31%)</t>
         </is>
       </c>
     </row>
@@ -6314,42 +6314,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.925 (-0.043%)</t>
+          <t>0.925 (99.957%)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.928 (0.205%)</t>
+          <t>0.928 (100.205%)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.925 (-0.097%)</t>
+          <t>0.925 (-0.302%)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.926 (-0.011%)</t>
+          <t>0.926 (99.989%)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.926 (0.000%)</t>
+          <t>0.926 (0.011%)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.926 (-0.022%)</t>
+          <t>0.926 (99.978%)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.926 (0.000%)</t>
+          <t>0.926 (0.022%)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.002 (0.23%)</t>
+          <t>1.852 (200.06%)</t>
         </is>
       </c>
     </row>
@@ -6374,42 +6374,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.948 (-0.011%)</t>
+          <t>0.948 (99.989%)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.948 (0.021%)</t>
+          <t>0.948 (100.021%)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>0.948 (-0.042%)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.948 (99.989%)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.948 (0.011%)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0.948 (100.021%)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>0.948 (-0.021%)</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0.948 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.948 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>0.948 (0.021%)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0.948 (0.000%)</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.896 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -6434,22 +6434,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.953 (-0.084%)</t>
+          <t>0.953 (99.916%)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.954 (0.031%)</t>
+          <t>0.954 (100.031%)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.953 (0.000%)</t>
+          <t>0.953 (-0.031%)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.953 (0.000%)</t>
+          <t>0.953 (100.000%)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6459,17 +6459,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.954 (0.052%)</t>
+          <t>0.954 (100.052%)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.954 (0.021%)</t>
+          <t>0.954 (-0.031%)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>1.907 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -6494,42 +6494,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.956 (0.199%)</t>
+          <t>0.956 (100.199%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.956 (0.241%)</t>
+          <t>0.956 (100.241%)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.956 (0.189%)</t>
+          <t>0.956 (-0.052%)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>0.954 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>0.954 (0.000%)</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.954 (0.000%)</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.954 (-0.021%)</t>
+          <t>0.954 (99.979%)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.954 (0.010%)</t>
+          <t>0.954 (0.031%)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.003 (0.37%)</t>
+          <t>1.910 (200.21%)</t>
         </is>
       </c>
     </row>
@@ -6554,22 +6554,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>0.957 (99.969%)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.958 (100.052%)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>0.957 (-0.031%)</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.958 (0.052%)</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.957 (0.021%)</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.957 (0.000%)</t>
+          <t>0.957 (100.000%)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6579,17 +6579,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.957 (0.031%)</t>
+          <t>0.957 (100.031%)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.957 (-0.021%)</t>
+          <t>0.957 (-0.052%)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>1.914 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -6614,42 +6614,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.759 (-1.556%)</t>
+          <t>0.759 (98.444%)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.774 (0.389%)</t>
+          <t>0.774 (100.389%)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.767 (-0.506%)</t>
+          <t>0.767 (-0.894%)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.771 (-0.026%)</t>
+          <t>0.771 (99.974%)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.771 (0.013%)</t>
+          <t>0.771 (0.039%)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.772 (0.052%)</t>
+          <t>0.772 (100.052%)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.772 (0.039%)</t>
+          <t>0.772 (-0.013%)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.013 (1.68%)</t>
+          <t>1.538 (199.44%)</t>
         </is>
       </c>
     </row>
@@ -6674,42 +6674,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.803 (-0.025%)</t>
+          <t>0.803 (99.975%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.807 (0.510%)</t>
+          <t>0.807 (100.510%)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.797 (-0.772%)</t>
+          <t>0.797 (-1.282%)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.803 (-0.025%)</t>
+          <t>0.803 (99.975%)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.804 (0.112%)</t>
+          <t>0.804 (0.137%)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.804 (0.100%)</t>
+          <t>0.804 (100.100%)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.803 (-0.025%)</t>
+          <t>0.803 (-0.125%)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.008 (0.94%)</t>
+          <t>1.609 (200.28%)</t>
         </is>
       </c>
     </row>
@@ -6734,42 +6734,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.825 (0.000%)</t>
+          <t>0.825 (100.000%)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.830 (0.521%)</t>
+          <t>0.830 (100.521%)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.820 (-0.642%)</t>
+          <t>0.820 (-1.163%)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.825 (0.012%)</t>
+          <t>0.825 (100.012%)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
+          <t>0.825 (-0.048%)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0.826 (100.036%)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
           <t>0.825 (-0.036%)</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>0.826 (0.036%)</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0.825 (0.000%)</t>
-        </is>
-      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.007 (0.83%)</t>
+          <t>1.653 (200.29%)</t>
         </is>
       </c>
     </row>
@@ -6794,42 +6794,42 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.853 (-0.047%)</t>
+          <t>0.853 (99.953%)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.857 (0.445%)</t>
+          <t>0.857 (100.445%)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.851 (-0.234%)</t>
+          <t>0.851 (-0.680%)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>0.853 (99.977%)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.854 (0.047%)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0.854 (100.012%)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
           <t>0.853 (-0.023%)</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0.854 (0.023%)</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>0.854 (0.012%)</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0.853 (-0.012%)</t>
-        </is>
-      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.004 (0.51%)</t>
+          <t>1.708 (200.19%)</t>
         </is>
       </c>
     </row>
@@ -6854,42 +6854,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.877 (-0.057%)</t>
+          <t>0.877 (99.943%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.880 (0.251%)</t>
+          <t>0.880 (100.251%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.878 (-0.023%)</t>
+          <t>0.878 (-0.273%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.878 (0.023%)</t>
+          <t>0.878 (100.023%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.878 (0.023%)</t>
+          <t>0.878 (0.000%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.878 (0.034%)</t>
+          <t>0.878 (100.034%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.878 (0.023%)</t>
+          <t>0.878 (-0.011%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.002 (0.26%)</t>
+          <t>1.757 (200.13%)</t>
         </is>
       </c>
     </row>
@@ -6914,22 +6914,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.899 (0.000%)</t>
+          <t>0.899 (100.000%)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.899 (0.022%)</t>
+          <t>0.899 (100.022%)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.899 (0.011%)</t>
+          <t>0.899 (-0.011%)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.899 (0.000%)</t>
+          <t>0.899 (100.000%)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -6939,17 +6939,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.899 (0.022%)</t>
+          <t>0.899 (100.022%)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.899 (-0.011%)</t>
+          <t>0.899 (-0.033%)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.798 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -6974,22 +6974,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.907 (0.000%)</t>
+          <t>0.907 (100.000%)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.907 (0.022%)</t>
+          <t>0.907 (100.022%)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.907 (0.011%)</t>
+          <t>0.907 (-0.011%)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.907 (0.000%)</t>
+          <t>0.907 (100.000%)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -6999,17 +6999,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.907 (0.011%)</t>
+          <t>0.907 (100.011%)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.907 (-0.011%)</t>
+          <t>0.907 (-0.022%)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.814 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -7034,42 +7034,42 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>0.911 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.911 (100.066%)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.911 (-0.044%)</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.911 (100.011%)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>0.911 (0.000%)</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.911 (0.066%)</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.911 (0.022%)</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>0.911 (0.011%)</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>0.911 (0.011%)</t>
-        </is>
-      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.911 (0.022%)</t>
+          <t>0.911 (100.022%)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.911 (-0.011%)</t>
+          <t>0.911 (-0.033%)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>1.822 (200.05%)</t>
         </is>
       </c>
     </row>
@@ -7094,42 +7094,42 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.932 (0.626%)</t>
+          <t>0.932 (100.626%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.927 (0.184%)</t>
+          <t>0.927 (100.184%)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.926 (0.054%)</t>
+          <t>0.926 (-0.130%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.926 (-0.022%)</t>
+          <t>0.926 (99.978%)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.924 (-0.162%)</t>
+          <t>0.924 (-0.140%)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.937 (1.188%)</t>
+          <t>0.937 (101.188%)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.926 (0.022%)</t>
+          <t>0.926 (-1.167%)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.013 (1.37%)</t>
+          <t>1.861 (200.99%)</t>
         </is>
       </c>
     </row>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.006 (0.65%)</t>
+          <t>0.006 (0.62%)</t>
         </is>
       </c>
     </row>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.009 (0.91%)</t>
+          <t>0.007 (0.76%)</t>
         </is>
       </c>
     </row>
@@ -7385,7 +7385,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.011 (1.09%)</t>
+          <t>0.010 (1.07%)</t>
         </is>
       </c>
     </row>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.006 (0.63%)</t>
+          <t>0.006 (0.58%)</t>
         </is>
       </c>
     </row>
@@ -7505,7 +7505,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>0.001 (0.06%)</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.003 (0.26%)</t>
+          <t>0.002 (0.25%)</t>
         </is>
       </c>
     </row>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.006 (0.60%)</t>
+          <t>0.005 (0.56%)</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.005 (0.47%)</t>
+          <t>0.004 (0.44%)</t>
         </is>
       </c>
     </row>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.010 (1.01%)</t>
+          <t>0.009 (0.96%)</t>
         </is>
       </c>
     </row>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>0.001 (0.11%)</t>
         </is>
       </c>
     </row>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.005 (0.55%)</t>
+          <t>0.005 (0.52%)</t>
         </is>
       </c>
     </row>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.004 (0.42%)</t>
+          <t>0.003 (0.36%)</t>
         </is>
       </c>
     </row>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.004 (0.40%)</t>
+          <t>0.003 (0.35%)</t>
         </is>
       </c>
     </row>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>0.002 (0.16%)</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -8765,7 +8765,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.003 (0.34%)</t>
+          <t>0.003 (0.29%)</t>
         </is>
       </c>
     </row>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.005 (0.49%)</t>
+          <t>0.005 (0.48%)</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.017 (1.79%)</t>
+          <t>0.016 (1.72%)</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.005 (0.59%)</t>
+          <t>0.005 (0.57%)</t>
         </is>
       </c>
     </row>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.003 (0.32%)</t>
+          <t>0.002 (0.26%)</t>
         </is>
       </c>
     </row>
@@ -9065,7 +9065,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.002 (0.24%)</t>
+          <t>0.002 (0.21%)</t>
         </is>
       </c>
     </row>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.003 (0.27%)</t>
+          <t>0.002 (0.17%)</t>
         </is>
       </c>
     </row>
@@ -9185,7 +9185,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>0.001 (0.07%)</t>
         </is>
       </c>
     </row>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.034 (3.46%)</t>
+          <t>0.026 (2.67%)</t>
         </is>
       </c>
     </row>
@@ -9466,42 +9466,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.845 (-0.012%)</t>
+          <t>0.845 (99.988%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.855 (1.159%)</t>
+          <t>0.855 (101.159%)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.830 (-1.775%)</t>
+          <t>0.830 (-2.934%)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>0.845 (99.965%)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.846 (0.071%)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.846 (100.035%)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>0.845 (-0.035%)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.846 (0.035%)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.846 (0.035%)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.845 (0.000%)</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.018 (2.12%)</t>
+          <t>1.695 (200.58%)</t>
         </is>
       </c>
     </row>
@@ -9526,42 +9526,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.875 (-0.011%)</t>
+          <t>0.875 (99.989%)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.888 (1.543%)</t>
+          <t>0.888 (101.543%)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.851 (-2.709%)</t>
+          <t>0.851 (-4.252%)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.874 (-0.103%)</t>
+          <t>0.874 (99.897%)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.870 (-0.606%)</t>
+          <t>0.870 (-0.503%)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.875 (-0.011%)</t>
+          <t>0.875 (99.989%)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.875 (0.000%)</t>
+          <t>0.875 (0.011%)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.028 (3.18%)</t>
+          <t>1.756 (200.71%)</t>
         </is>
       </c>
     </row>
@@ -9586,42 +9586,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.892 (0.067%)</t>
+          <t>0.892 (100.067%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.908 (1.852%)</t>
+          <t>0.908 (101.852%)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.878 (-1.515%)</t>
+          <t>0.878 (-3.367%)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.892 (0.090%)</t>
+          <t>0.892 (100.090%)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.891 (0.045%)</t>
+          <t>0.891 (-0.045%)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.892 (0.101%)</t>
+          <t>0.892 (100.101%)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.892 (0.090%)</t>
+          <t>0.892 (-0.011%)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.021 (2.40%)</t>
+          <t>1.792 (201.06%)</t>
         </is>
       </c>
     </row>
@@ -9646,42 +9646,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.919 (-0.011%)</t>
+          <t>0.919 (99.989%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.928 (0.935%)</t>
+          <t>0.928 (100.935%)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.915 (-0.468%)</t>
+          <t>0.915 (-1.403%)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.919 (-0.011%)</t>
+          <t>0.919 (99.989%)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.919 (0.011%)</t>
+          <t>0.919 (0.022%)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.919 (-0.022%)</t>
+          <t>0.919 (99.978%)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.919 (0.000%)</t>
+          <t>0.919 (0.022%)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.010 (1.05%)</t>
+          <t>1.843 (200.45%)</t>
         </is>
       </c>
     </row>
@@ -9706,42 +9706,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.952 (0.000%)</t>
+          <t>0.952 (100.000%)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.953 (0.147%)</t>
+          <t>0.953 (100.147%)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>0.952 (-0.189%)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.952 (100.011%)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.952 (0.021%)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.952 (100.042%)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>0.952 (-0.042%)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.952 (0.011%)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.952 (0.032%)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.952 (0.042%)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0.952 (0.000%)</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.002 (0.16%)</t>
+          <t>1.905 (200.10%)</t>
         </is>
       </c>
     </row>
@@ -9766,42 +9766,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.972 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.971 (-0.031%)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>0.971 (0.000%)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.972 (0.021%)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.971 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.971 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.971 (0.000%)</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.972 (0.031%)</t>
+          <t>0.972 (100.031%)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.971 (-0.010%)</t>
+          <t>0.971 (-0.041%)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.943 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -9826,42 +9826,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.974 (-0.010%)</t>
+          <t>0.974 (99.990%)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.974 (0.021%)</t>
+          <t>0.974 (100.021%)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>0.974 (-0.041%)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.974 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.974 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.974 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>0.974 (-0.021%)</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.974 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.974 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0.974 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0.974 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.948 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -9886,42 +9886,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>0.975 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.975 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.974 (-0.041%)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.975 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.975 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.975 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>0.975 (-0.010%)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.975 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.974 (-0.031%)</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.975 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.975 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0.975 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0.975 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.949 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -9946,42 +9946,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.974 (-0.072%)</t>
+          <t>0.974 (99.928%)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.975 (0.031%)</t>
+          <t>0.975 (100.031%)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.975 (0.010%)</t>
+          <t>0.975 (-0.021%)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.974 (-0.021%)</t>
+          <t>0.974 (99.979%)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.974 (-0.031%)</t>
+          <t>0.974 (-0.010%)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.974 (-0.021%)</t>
+          <t>0.974 (99.979%)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.974 (-0.062%)</t>
+          <t>0.974 (-0.041%)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>1.949 (199.96%)</t>
         </is>
       </c>
     </row>
@@ -10006,32 +10006,32 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.859 (0.023%)</t>
+          <t>0.859 (100.023%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.865 (0.745%)</t>
+          <t>0.865 (100.745%)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.849 (-1.118%)</t>
+          <t>0.849 (-1.863%)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.859 (-0.047%)</t>
+          <t>0.859 (99.953%)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.858 (-0.163%)</t>
+          <t>0.858 (-0.116%)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.859 (0.000%)</t>
+          <t>0.859 (100.000%)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.012 (1.35%)</t>
+          <t>1.721 (200.36%)</t>
         </is>
       </c>
     </row>
@@ -10066,42 +10066,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.880 (-0.520%)</t>
+          <t>0.880 (99.480%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.896 (1.300%)</t>
+          <t>0.896 (101.300%)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.865 (-2.148%)</t>
+          <t>0.865 (-3.449%)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.884 (-0.023%)</t>
+          <t>0.884 (99.977%)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.883 (-0.102%)</t>
+          <t>0.883 (-0.079%)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.880 (-0.452%)</t>
+          <t>0.880 (99.548%)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.884 (-0.023%)</t>
+          <t>0.884 (0.430%)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.023 (2.61%)</t>
+          <t>1.770 (200.16%)</t>
         </is>
       </c>
     </row>
@@ -10126,42 +10126,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.897 (-0.422%)</t>
+          <t>0.897 (99.578%)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.913 (1.355%)</t>
+          <t>0.913 (101.355%)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.883 (-1.910%)</t>
+          <t>0.883 (-3.265%)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.900 (-0.011%)</t>
+          <t>0.900 (99.989%)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.901 (0.056%)</t>
+          <t>0.901 (0.067%)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.897 (-0.411%)</t>
+          <t>0.897 (99.589%)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.897 (-0.378%)</t>
+          <t>0.897 (0.033%)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.022 (2.44%)</t>
+          <t>1.803 (200.26%)</t>
         </is>
       </c>
     </row>
@@ -10186,22 +10186,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.918 (-0.011%)</t>
+          <t>0.918 (99.989%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.928 (1.067%)</t>
+          <t>0.928 (101.067%)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.914 (-0.425%)</t>
+          <t>0.914 (-1.492%)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.918 (0.000%)</t>
+          <t>0.918 (100.000%)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -10211,17 +10211,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.918 (-0.033%)</t>
+          <t>0.918 (99.967%)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.918 (0.011%)</t>
+          <t>0.918 (0.044%)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.011 (1.15%)</t>
+          <t>1.842 (200.51%)</t>
         </is>
       </c>
     </row>
@@ -10246,22 +10246,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.950 (-0.032%)</t>
+          <t>0.950 (99.968%)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.952 (0.210%)</t>
+          <t>0.952 (100.210%)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.950 (-0.053%)</t>
+          <t>0.950 (-0.263%)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.950 (0.000%)</t>
+          <t>0.950 (100.000%)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -10271,17 +10271,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.950 (0.011%)</t>
+          <t>0.950 (100.011%)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.950 (0.000%)</t>
+          <t>0.950 (-0.011%)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>1.901 (200.09%)</t>
         </is>
       </c>
     </row>
@@ -10306,42 +10306,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>0.973 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.973 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.973 (-0.031%)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.973 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>0.973 (0.000%)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.973 (0.021%)</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.973 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.973 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.973 (0.000%)</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.973 (0.021%)</t>
+          <t>0.973 (100.021%)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.973 (-0.010%)</t>
+          <t>0.973 (-0.031%)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.946 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -10366,22 +10366,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.974 (0.000%)</t>
+          <t>0.974 (100.000%)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.975 (0.031%)</t>
+          <t>0.975 (100.031%)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.974 (-0.082%)</t>
+          <t>0.974 (-0.113%)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.974 (0.000%)</t>
+          <t>0.974 (100.000%)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -10391,17 +10391,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.975 (0.021%)</t>
+          <t>0.975 (100.021%)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.974 (-0.021%)</t>
+          <t>0.974 (-0.041%)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>1.949 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -10426,42 +10426,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.973 (-0.133%)</t>
+          <t>0.973 (99.867%)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.974 (0.041%)</t>
+          <t>0.974 (100.041%)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>0.974 (-0.051%)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.974 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.974 (0.021%)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0.974 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>0.974 (-0.010%)</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0.974 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.974 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0.974 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0.974 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>1.947 (199.95%)</t>
         </is>
       </c>
     </row>
@@ -10486,22 +10486,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.967 (-0.155%)</t>
+          <t>0.967 (99.845%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.969 (0.072%)</t>
+          <t>0.969 (100.072%)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.968 (-0.072%)</t>
+          <t>0.968 (-0.145%)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.968 (0.000%)</t>
+          <t>0.968 (100.000%)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -10511,17 +10511,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.969 (0.052%)</t>
+          <t>0.969 (100.052%)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.968 (0.000%)</t>
+          <t>0.968 (-0.052%)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>1.937 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -10546,42 +10546,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.857 (0.000%)</t>
+          <t>0.857 (100.000%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.862 (0.583%)</t>
+          <t>0.862 (100.583%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.850 (-0.875%)</t>
+          <t>0.850 (-1.458%)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.857 (-0.023%)</t>
+          <t>0.857 (99.977%)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.856 (-0.117%)</t>
+          <t>0.856 (-0.093%)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.858 (0.035%)</t>
+          <t>0.858 (100.035%)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.857 (-0.035%)</t>
+          <t>0.857 (-0.070%)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.009 (1.06%)</t>
+          <t>1.717 (200.30%)</t>
         </is>
       </c>
     </row>
@@ -10606,42 +10606,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.883 (-0.091%)</t>
+          <t>0.883 (99.909%)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.891 (0.871%)</t>
+          <t>0.891 (100.871%)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.874 (-1.075%)</t>
+          <t>0.874 (-1.946%)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.884 (-0.023%)</t>
+          <t>0.884 (99.977%)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.884 (-0.023%)</t>
+          <t>0.884 (0.000%)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.884 (0.034%)</t>
+          <t>0.884 (100.034%)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.884 (-0.011%)</t>
+          <t>0.884 (-0.045%)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.012 (1.39%)</t>
+          <t>1.771 (200.40%)</t>
         </is>
       </c>
     </row>
@@ -10666,42 +10666,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.901 (-0.067%)</t>
+          <t>0.901 (99.933%)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.909 (0.899%)</t>
+          <t>0.909 (100.899%)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.892 (-1.032%)</t>
+          <t>0.892 (-1.931%)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.901 (-0.022%)</t>
+          <t>0.901 (99.978%)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.902 (0.067%)</t>
+          <t>0.902 (0.089%)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.901 (0.022%)</t>
+          <t>0.901 (100.022%)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.901 (-0.011%)</t>
+          <t>0.901 (-0.033%)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.012 (1.37%)</t>
+          <t>1.806 (200.42%)</t>
         </is>
       </c>
     </row>
@@ -10726,42 +10726,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.919 (-0.044%)</t>
+          <t>0.919 (99.956%)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.926 (0.740%)</t>
+          <t>0.926 (100.740%)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.917 (-0.272%)</t>
+          <t>0.917 (-1.011%)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.919 (-0.022%)</t>
+          <t>0.919 (99.978%)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.920 (0.044%)</t>
+          <t>0.920 (0.065%)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.920 (0.022%)</t>
+          <t>0.920 (100.022%)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.919 (-0.011%)</t>
+          <t>0.919 (-0.033%)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.007 (0.79%)</t>
+          <t>1.842 (200.35%)</t>
         </is>
       </c>
     </row>
@@ -10786,22 +10786,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.942 (-0.053%)</t>
+          <t>0.942 (99.947%)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.945 (0.212%)</t>
+          <t>0.945 (100.212%)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.942 (-0.095%)</t>
+          <t>0.942 (-0.308%)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.943 (0.000%)</t>
+          <t>0.943 (100.000%)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -10811,17 +10811,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.943 (0.032%)</t>
+          <t>0.943 (100.032%)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.943 (0.000%)</t>
+          <t>0.943 (-0.032%)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.002 (0.24%)</t>
+          <t>1.886 (200.10%)</t>
         </is>
       </c>
     </row>
@@ -10846,22 +10846,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.961 (0.000%)</t>
+          <t>0.961 (100.000%)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.961 (0.031%)</t>
+          <t>0.961 (100.031%)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.961 (-0.010%)</t>
+          <t>0.961 (-0.042%)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.961 (0.000%)</t>
+          <t>0.961 (100.000%)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -10871,17 +10871,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.961 (0.042%)</t>
+          <t>0.961 (100.042%)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.961 (0.000%)</t>
+          <t>0.961 (-0.042%)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>1.922 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -10906,22 +10906,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.962 (-0.021%)</t>
+          <t>0.962 (99.979%)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.963 (0.021%)</t>
+          <t>0.963 (100.021%)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.962 (-0.021%)</t>
+          <t>0.962 (-0.042%)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.963 (0.000%)</t>
+          <t>0.963 (100.000%)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -10931,17 +10931,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.963 (0.031%)</t>
+          <t>0.963 (100.031%)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.963 (0.000%)</t>
+          <t>0.963 (-0.031%)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.925 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -10966,22 +10966,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.962 (0.000%)</t>
+          <t>0.962 (100.000%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.962 (0.010%)</t>
+          <t>0.962 (100.010%)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.961 (-0.052%)</t>
+          <t>0.961 (-0.062%)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.962 (0.000%)</t>
+          <t>0.962 (100.000%)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -10991,17 +10991,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.962 (0.010%)</t>
+          <t>0.962 (100.010%)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.962 (0.000%)</t>
+          <t>0.962 (-0.010%)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.924 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -11026,42 +11026,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.963 (-0.145%)</t>
+          <t>0.963 (99.855%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.965 (0.062%)</t>
+          <t>0.965 (100.062%)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.965 (0.104%)</t>
+          <t>0.965 (0.041%)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.964 (0.021%)</t>
+          <t>0.964 (100.021%)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.965 (0.052%)</t>
+          <t>0.965 (0.031%)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.965 (0.093%)</t>
+          <t>0.965 (100.093%)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.964 (-0.021%)</t>
+          <t>0.964 (-0.114%)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>1.928 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -11086,42 +11086,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.792 (-0.013%)</t>
+          <t>0.792 (99.987%)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.796 (0.467%)</t>
+          <t>0.796 (100.467%)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.787 (-0.644%)</t>
+          <t>0.787 (-1.110%)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.792 (-0.038%)</t>
+          <t>0.792 (99.962%)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.792 (-0.101%)</t>
+          <t>0.792 (-0.063%)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.793 (0.114%)</t>
+          <t>0.793 (100.114%)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.792 (-0.050%)</t>
+          <t>0.792 (-0.164%)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.006 (0.81%)</t>
+          <t>1.587 (200.27%)</t>
         </is>
       </c>
     </row>
@@ -11146,42 +11146,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>0.818 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.823 (100.550%)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.812 (-1.320%)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.818 (99.976%)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>0.818 (0.000%)</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.823 (0.550%)</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.812 (-0.770%)</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0.818 (-0.024%)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.818 (-0.024%)</t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.818 (-0.037%)</t>
+          <t>0.818 (99.963%)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.818 (-0.024%)</t>
+          <t>0.818 (0.012%)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.008 (0.95%)</t>
+          <t>1.639 (200.24%)</t>
         </is>
       </c>
     </row>
@@ -11206,42 +11206,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.839 (-0.048%)</t>
+          <t>0.839 (99.952%)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.844 (0.524%)</t>
+          <t>0.844 (100.524%)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.834 (-0.596%)</t>
+          <t>0.834 (-1.120%)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.839 (-0.024%)</t>
+          <t>0.839 (99.976%)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.838 (-0.143%)</t>
+          <t>0.838 (-0.119%)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.840 (0.048%)</t>
+          <t>0.840 (100.048%)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.839 (-0.060%)</t>
+          <t>0.839 (-0.107%)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.007 (0.81%)</t>
+          <t>1.681 (200.25%)</t>
         </is>
       </c>
     </row>
@@ -11266,42 +11266,42 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.862 (-0.209%)</t>
+          <t>0.862 (99.791%)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.867 (0.417%)</t>
+          <t>0.867 (100.417%)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.862 (-0.197%)</t>
+          <t>0.862 (-0.614%)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.863 (-0.023%)</t>
+          <t>0.863 (99.977%)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.863 (-0.012%)</t>
+          <t>0.863 (0.012%)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.864 (0.058%)</t>
+          <t>0.864 (100.058%)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.863 (-0.012%)</t>
+          <t>0.863 (-0.070%)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.004 (0.51%)</t>
+          <t>1.728 (200.12%)</t>
         </is>
       </c>
     </row>
@@ -11326,42 +11326,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.879 (-0.136%)</t>
+          <t>0.879 (99.864%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.882 (0.204%)</t>
+          <t>0.882 (100.204%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.880 (-0.011%)</t>
+          <t>0.880 (-0.216%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.881 (0.011%)</t>
+          <t>0.881 (100.011%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.880 (-0.023%)</t>
+          <t>0.880 (-0.034%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.881 (0.057%)</t>
+          <t>0.881 (100.057%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.880 (0.000%)</t>
+          <t>0.880 (-0.057%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.002 (0.25%)</t>
+          <t>1.762 (200.07%)</t>
         </is>
       </c>
     </row>
@@ -11386,42 +11386,42 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.898 (-0.045%)</t>
+          <t>0.898 (99.955%)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.899 (0.045%)</t>
+          <t>0.899 (100.045%)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.897 (-0.167%)</t>
+          <t>0.897 (-0.212%)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.898 (-0.045%)</t>
+          <t>0.898 (99.955%)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.898 (0.011%)</t>
+          <t>0.898 (0.056%)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.899 (0.056%)</t>
+          <t>0.899 (100.056%)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.898 (-0.067%)</t>
+          <t>0.898 (-0.122%)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.002 (0.20%)</t>
+          <t>1.797 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -11446,42 +11446,42 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>0.900 (100.022%)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.900 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>0.900 (0.022%)</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.900 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.900 (0.022%)</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.899 (-0.078%)</t>
+          <t>0.899 (99.922%)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.900 (0.011%)</t>
+          <t>0.900 (0.089%)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.899 (-0.089%)</t>
+          <t>0.899 (99.911%)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.900 (0.000%)</t>
+          <t>0.900 (0.089%)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>1.800 (199.93%)</t>
         </is>
       </c>
     </row>
@@ -11506,42 +11506,42 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.904 (0.066%)</t>
+          <t>0.904 (100.066%)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.904 (0.078%)</t>
+          <t>0.904 (100.078%)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.903 (0.022%)</t>
+          <t>0.903 (-0.055%)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
+          <t>0.903 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>0.903 (0.000%)</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>0.903 (0.000%)</t>
-        </is>
-      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.912 (0.986%)</t>
+          <t>0.912 (100.986%)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.903 (-0.033%)</t>
+          <t>0.903 (-1.019%)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.009 (0.99%)</t>
+          <t>1.811 (200.57%)</t>
         </is>
       </c>
     </row>
@@ -11566,42 +11566,42 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.921 (0.942%)</t>
+          <t>0.921 (100.942%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.907 (-0.613%)</t>
+          <t>0.907 (99.387%)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.911 (-0.164%)</t>
+          <t>0.911 (0.449%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.913 (0.011%)</t>
+          <t>0.913 (100.011%)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.912 (-0.077%)</t>
+          <t>0.912 (-0.088%)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.911 (-0.142%)</t>
+          <t>0.911 (99.858%)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.912 (-0.077%)</t>
+          <t>0.912 (0.066%)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.010 (1.15%)</t>
+          <t>1.827 (200.10%)</t>
         </is>
       </c>
     </row>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.006 (0.60%)</t>
+          <t>0.005 (0.54%)</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.009 (0.92%)</t>
+          <t>0.009 (0.91%)</t>
         </is>
       </c>
     </row>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.004 (0.42%)</t>
+          <t>0.002 (0.22%)</t>
         </is>
       </c>
     </row>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -12037,7 +12037,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>0.000 (0.01%)</t>
         </is>
       </c>
     </row>
@@ -12157,7 +12157,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>0.001 (0.09%)</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.005 (0.47%)</t>
+          <t>0.004 (0.45%)</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12397,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.008 (0.83%)</t>
+          <t>0.007 (0.68%)</t>
         </is>
       </c>
     </row>
@@ -12517,7 +12517,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>0.001 (0.07%)</t>
         </is>
       </c>
     </row>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>0.002 (0.16%)</t>
         </is>
       </c>
     </row>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.008 (0.85%)</t>
+          <t>0.005 (0.54%)</t>
         </is>
       </c>
     </row>
@@ -12877,7 +12877,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.003 (0.28%)</t>
+          <t>0.002 (0.21%)</t>
         </is>
       </c>
     </row>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.002 (0.21%)</t>
+          <t>0.002 (0.17%)</t>
         </is>
       </c>
     </row>
@@ -12997,7 +12997,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>0.002 (0.20%)</t>
         </is>
       </c>
     </row>
@@ -13057,7 +13057,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>0.001 (0.06%)</t>
         </is>
       </c>
     </row>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>0.001 (0.07%)</t>
         </is>
       </c>
     </row>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.008 (0.77%)</t>
+          <t>0.007 (0.66%)</t>
         </is>
       </c>
     </row>
@@ -13417,7 +13417,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.007 (0.69%)</t>
+          <t>0.006 (0.62%)</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.003 (0.32%)</t>
+          <t>0.003 (0.31%)</t>
         </is>
       </c>
     </row>
@@ -13657,7 +13657,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.003 (0.28%)</t>
+          <t>0.003 (0.27%)</t>
         </is>
       </c>
     </row>
@@ -13717,7 +13717,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.003 (0.30%)</t>
+          <t>0.003 (0.29%)</t>
         </is>
       </c>
     </row>
@@ -13777,7 +13777,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.010 (1.05%)</t>
+          <t>0.003 (0.32%)</t>
         </is>
       </c>
     </row>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.035 (3.66%)</t>
+          <t>0.034 (3.56%)</t>
         </is>
       </c>
     </row>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.022 (2.60%)</t>
+          <t>0.017 (2.03%)</t>
         </is>
       </c>
     </row>
@@ -14033,7 +14033,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.024 (2.76%)</t>
+          <t>0.019 (2.17%)</t>
         </is>
       </c>
     </row>
@@ -14093,7 +14093,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.018 (2.08%)</t>
+          <t>0.013 (1.52%)</t>
         </is>
       </c>
     </row>
@@ -14153,7 +14153,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.009 (1.03%)</t>
+          <t>0.009 (0.98%)</t>
         </is>
       </c>
     </row>
@@ -14333,7 +14333,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -14453,7 +14453,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.007 (0.70%)</t>
+          <t>0.007 (0.69%)</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.015 (1.71%)</t>
+          <t>0.012 (1.43%)</t>
         </is>
       </c>
     </row>
@@ -14573,7 +14573,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.019 (2.16%)</t>
+          <t>0.015 (1.72%)</t>
         </is>
       </c>
     </row>
@@ -14633,7 +14633,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.019 (2.15%)</t>
+          <t>0.014 (1.58%)</t>
         </is>
       </c>
     </row>
@@ -14693,7 +14693,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.011 (1.18%)</t>
+          <t>0.010 (1.15%)</t>
         </is>
       </c>
     </row>
@@ -14933,7 +14933,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>0.002 (0.17%)</t>
         </is>
       </c>
     </row>
@@ -14993,7 +14993,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.009 (0.99%)</t>
+          <t>0.009 (0.97%)</t>
         </is>
       </c>
     </row>
@@ -15053,7 +15053,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.007 (0.88%)</t>
+          <t>0.006 (0.69%)</t>
         </is>
       </c>
     </row>
@@ -15113,7 +15113,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.014 (1.56%)</t>
+          <t>0.011 (1.30%)</t>
         </is>
       </c>
     </row>
@@ -15173,7 +15173,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.013 (1.47%)</t>
+          <t>0.011 (1.20%)</t>
         </is>
       </c>
     </row>
@@ -15233,7 +15233,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.009 (0.97%)</t>
+          <t>0.008 (0.89%)</t>
         </is>
       </c>
     </row>
@@ -15473,7 +15473,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>0.002 (0.21%)</t>
         </is>
       </c>
     </row>
@@ -15653,7 +15653,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.008 (1.01%)</t>
+          <t>0.006 (0.81%)</t>
         </is>
       </c>
     </row>
@@ -15713,7 +15713,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.009 (1.16%)</t>
+          <t>0.009 (1.06%)</t>
         </is>
       </c>
     </row>
@@ -15773,7 +15773,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.004 (0.49%)</t>
+          <t>0.004 (0.47%)</t>
         </is>
       </c>
     </row>
@@ -15833,7 +15833,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.001 (0.17%)</t>
+          <t>0.001 (0.16%)</t>
         </is>
       </c>
     </row>
@@ -16013,7 +16013,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.010 (1.18%)</t>
+          <t>0.010 (1.17%)</t>
         </is>
       </c>
     </row>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.028 (3.17%)</t>
+          <t>0.027 (3.14%)</t>
         </is>
       </c>
     </row>
@@ -16174,42 +16174,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.849 (0.000%)</t>
+          <t>0.849 (100.000%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.860 (1.295%)</t>
+          <t>0.860 (101.295%)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.835 (-1.684%)</t>
+          <t>0.835 (-2.979%)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.849 (-0.035%)</t>
+          <t>0.849 (99.965%)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.849 (-0.012%)</t>
+          <t>0.849 (0.024%)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.849 (-0.035%)</t>
+          <t>0.849 (99.965%)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.849 (0.012%)</t>
+          <t>0.849 (0.047%)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.018 (2.13%)</t>
+          <t>1.704 (200.62%)</t>
         </is>
       </c>
     </row>
@@ -16234,42 +16234,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.881 (-0.011%)</t>
+          <t>0.881 (99.989%)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.894 (1.510%)</t>
+          <t>0.894 (101.510%)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.864 (-1.964%)</t>
+          <t>0.864 (-3.474%)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.881 (-0.011%)</t>
+          <t>0.881 (99.989%)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.880 (-0.045%)</t>
+          <t>0.880 (-0.034%)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.881 (0.011%)</t>
+          <t>0.881 (100.011%)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.880 (-0.045%)</t>
+          <t>0.880 (-0.057%)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.022 (2.48%)</t>
+          <t>1.768 (200.75%)</t>
         </is>
       </c>
     </row>
@@ -16294,42 +16294,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.898 (0.000%)</t>
+          <t>0.898 (100.000%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.911 (1.437%)</t>
+          <t>0.911 (101.437%)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.885 (-1.448%)</t>
+          <t>0.885 (-2.884%)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.898 (0.022%)</t>
+          <t>0.898 (100.022%)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.898 (0.000%)</t>
+          <t>0.898 (-0.022%)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.898 (0.022%)</t>
+          <t>0.898 (100.022%)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.898 (0.033%)</t>
+          <t>0.898 (0.011%)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.018 (2.04%)</t>
+          <t>1.803 (200.74%)</t>
         </is>
       </c>
     </row>
@@ -16354,42 +16354,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.927 (-0.011%)</t>
+          <t>0.927 (99.989%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.933 (0.669%)</t>
+          <t>0.933 (100.669%)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.923 (-0.431%)</t>
+          <t>0.923 (-1.100%)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.927 (-0.011%)</t>
+          <t>0.927 (99.989%)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>0.927 (0.022%)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.927 (99.978%)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>0.927 (0.011%)</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.927 (-0.022%)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.927 (-0.011%)</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.007 (0.80%)</t>
+          <t>1.857 (200.31%)</t>
         </is>
       </c>
     </row>
@@ -16414,42 +16414,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>0.959 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.960 (100.136%)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.959 (-0.188%)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.959 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.959 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.959 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>0.959 (-0.010%)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.960 (0.136%)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.959 (-0.052%)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.959 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.959 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.959 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0.959 (0.000%)</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>1.919 (200.07%)</t>
         </is>
       </c>
     </row>
@@ -16474,42 +16474,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.978 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.978 (100.020%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.978 (-0.031%)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.978 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>0.978 (0.000%)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.978 (0.020%)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.978 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.978 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.978 (-0.010%)</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.978 (0.010%)</t>
+          <t>0.978 (100.010%)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.978 (-0.010%)</t>
+          <t>0.978 (-0.020%)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.956 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -16534,42 +16534,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.980 (0.000%)</t>
+          <t>0.980 (100.000%)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.981 (0.010%)</t>
+          <t>0.981 (100.010%)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>0.980 (-0.020%)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.980 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>0.980 (-0.010%)</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.980 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.980 (-0.010%)</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.981 (0.010%)</t>
+          <t>0.981 (100.010%)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.980 (-0.010%)</t>
+          <t>0.980 (-0.020%)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.961 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -16594,42 +16594,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.981 (0.000%)</t>
+          <t>0.981 (100.000%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.981 (0.010%)</t>
+          <t>0.981 (100.010%)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>0.981 (-0.020%)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.981 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>0.981 (-0.010%)</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.981 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.981 (-0.010%)</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.981 (0.010%)</t>
+          <t>0.981 (100.010%)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.981 (-0.010%)</t>
+          <t>0.981 (-0.020%)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.963 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -16654,42 +16654,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.982 (-0.010%)</t>
+          <t>0.982 (99.990%)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.982 (0.031%)</t>
+          <t>0.982 (100.031%)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.981 (-0.031%)</t>
+          <t>0.981 (-0.061%)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.982 (0.020%)</t>
+          <t>0.982 (100.020%)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.983 (0.092%)</t>
+          <t>0.983 (0.071%)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.982 (0.041%)</t>
+          <t>0.982 (100.041%)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.982 (-0.020%)</t>
+          <t>0.982 (-0.061%)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>1.964 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -16714,42 +16714,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.861 (0.000%)</t>
+          <t>0.861 (100.000%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.867 (0.720%)</t>
+          <t>0.867 (100.720%)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.851 (-1.173%)</t>
+          <t>0.851 (-1.893%)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.861 (-0.012%)</t>
+          <t>0.861 (99.988%)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.860 (-0.174%)</t>
+          <t>0.860 (-0.163%)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.861 (-0.012%)</t>
+          <t>0.861 (99.988%)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.861 (-0.035%)</t>
+          <t>0.861 (-0.023%)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.012 (1.39%)</t>
+          <t>1.725 (200.35%)</t>
         </is>
       </c>
     </row>
@@ -16774,42 +16774,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.890 (-0.101%)</t>
+          <t>0.890 (99.899%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.901 (1.145%)</t>
+          <t>0.901 (101.145%)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.877 (-1.582%)</t>
+          <t>0.877 (-2.727%)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.891 (-0.034%)</t>
+          <t>0.891 (99.966%)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.891 (-0.011%)</t>
+          <t>0.891 (0.022%)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.891 (0.011%)</t>
+          <t>0.891 (100.011%)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.891 (-0.011%)</t>
+          <t>0.891 (-0.022%)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.017 (1.96%)</t>
+          <t>1.787 (200.51%)</t>
         </is>
       </c>
     </row>
@@ -16834,32 +16834,32 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>0.900 (99.480%)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.916 (101.316%)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.891 (-2.852%)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.904 (99.978%)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>0.900 (-0.520%)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.916 (1.316%)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.891 (-1.537%)</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.904 (-0.022%)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.900 (-0.542%)</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.904 (0.000%)</t>
+          <t>0.904 (100.000%)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -16869,7 +16869,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.020 (2.16%)</t>
+          <t>1.813 (200.39%)</t>
         </is>
       </c>
     </row>
@@ -16894,22 +16894,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.921 (-0.033%)</t>
+          <t>0.921 (99.967%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.928 (0.749%)</t>
+          <t>0.928 (100.749%)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.918 (-0.423%)</t>
+          <t>0.918 (-1.172%)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.922 (0.000%)</t>
+          <t>0.922 (100.000%)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -16919,17 +16919,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.921 (-0.043%)</t>
+          <t>0.921 (99.957%)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.922 (0.022%)</t>
+          <t>0.922 (0.065%)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.008 (0.86%)</t>
+          <t>1.846 (200.34%)</t>
         </is>
       </c>
     </row>
@@ -16954,22 +16954,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.953 (-0.021%)</t>
+          <t>0.953 (99.979%)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.955 (0.210%)</t>
+          <t>0.955 (100.210%)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.952 (-0.063%)</t>
+          <t>0.952 (-0.273%)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.953 (0.000%)</t>
+          <t>0.953 (100.000%)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -16979,17 +16979,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.953 (-0.010%)</t>
+          <t>0.953 (99.990%)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.953 (0.000%)</t>
+          <t>0.953 (0.010%)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>1.906 (200.09%)</t>
         </is>
       </c>
     </row>
@@ -17014,42 +17014,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.975 (0.000%)</t>
+          <t>0.975 (100.000%)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.976 (0.021%)</t>
+          <t>0.976 (100.021%)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.975 (-0.010%)</t>
+          <t>0.975 (-0.031%)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.975 (-0.010%)</t>
+          <t>0.975 (99.990%)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.975 (0.000%)</t>
+          <t>0.975 (0.010%)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.975 (0.010%)</t>
+          <t>0.975 (100.010%)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.975 (-0.010%)</t>
+          <t>0.975 (-0.021%)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.951 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -17074,42 +17074,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>0.978 (99.980%)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.978 (100.031%)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.978 (-0.051%)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.978 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.978 (-0.031%)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0.978 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>0.978 (-0.020%)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.978 (0.031%)</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.978 (-0.020%)</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0.978 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.978 (-0.031%)</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0.978 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0.978 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>1.956 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -17134,32 +17134,32 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>0.977 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.977 (100.020%)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.977 (-0.061%)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.977 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>0.977 (0.000%)</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.977 (0.020%)</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.977 (-0.041%)</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0.977 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.977 (0.000%)</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.977 (0.000%)</t>
+          <t>0.977 (100.000%)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -17169,7 +17169,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.954 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -17194,42 +17194,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.972 (-0.062%)</t>
+          <t>0.972 (99.938%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.972 (-0.051%)</t>
+          <t>0.972 (99.949%)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.972 (0.000%)</t>
+          <t>0.972 (0.051%)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.971 (-0.093%)</t>
+          <t>0.971 (99.907%)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.973 (0.103%)</t>
+          <t>0.973 (0.195%)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.971 (-0.093%)</t>
+          <t>0.971 (99.907%)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.972 (-0.041%)</t>
+          <t>0.972 (0.051%)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>1.943 (199.85%)</t>
         </is>
       </c>
     </row>
@@ -17254,42 +17254,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.858 (-0.151%)</t>
+          <t>0.858 (99.849%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.863 (0.512%)</t>
+          <t>0.863 (100.512%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.852 (-0.862%)</t>
+          <t>0.852 (-1.374%)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>0.859 (99.965%)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.859 (0.081%)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0.859 (100.035%)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>0.859 (-0.035%)</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.859 (0.047%)</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0.859 (0.035%)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0.859 (0.000%)</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.009 (1.02%)</t>
+          <t>1.719 (200.18%)</t>
         </is>
       </c>
     </row>
@@ -17314,42 +17314,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.885 (-0.090%)</t>
+          <t>0.885 (99.910%)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.894 (0.858%)</t>
+          <t>0.894 (100.858%)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.876 (-1.129%)</t>
+          <t>0.876 (-1.986%)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.886 (-0.011%)</t>
+          <t>0.886 (99.989%)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.886 (0.023%)</t>
+          <t>0.886 (0.034%)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.886 (0.023%)</t>
+          <t>0.886 (100.023%)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.886 (0.000%)</t>
+          <t>0.886 (-0.023%)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.013 (1.42%)</t>
+          <t>1.775 (200.39%)</t>
         </is>
       </c>
     </row>
@@ -17374,42 +17374,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.904 (-0.044%)</t>
+          <t>0.904 (99.956%)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.912 (0.852%)</t>
+          <t>0.912 (100.852%)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.895 (-0.951%)</t>
+          <t>0.895 (-1.803%)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.904 (-0.011%)</t>
+          <t>0.904 (99.989%)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.905 (0.055%)</t>
+          <t>0.905 (0.066%)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.904 (-0.011%)</t>
+          <t>0.904 (99.989%)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.904 (-0.011%)</t>
+          <t>0.904 (0.000%)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.012 (1.28%)</t>
+          <t>1.812 (200.39%)</t>
         </is>
       </c>
     </row>
@@ -17434,42 +17434,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.921 (-0.054%)</t>
+          <t>0.921 (99.946%)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.928 (0.694%)</t>
+          <t>0.928 (100.694%)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.919 (-0.304%)</t>
+          <t>0.919 (-0.998%)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.922 (-0.022%)</t>
+          <t>0.922 (99.978%)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.922 (0.000%)</t>
+          <t>0.922 (0.022%)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.922 (0.011%)</t>
+          <t>0.922 (100.011%)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.922 (0.000%)</t>
+          <t>0.922 (-0.011%)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.007 (0.76%)</t>
+          <t>1.847 (200.32%)</t>
         </is>
       </c>
     </row>
@@ -17494,42 +17494,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>0.945 (99.989%)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.947 (100.233%)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.944 (-0.286%)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.945 (100.032%)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>0.945 (-0.011%)</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.947 (0.233%)</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.944 (-0.053%)</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>0.945 (0.032%)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.945 (0.021%)</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.945 (0.053%)</t>
+          <t>0.945 (100.053%)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.945 (0.032%)</t>
+          <t>0.945 (-0.021%)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.002 (0.25%)</t>
+          <t>1.891 (200.15%)</t>
         </is>
       </c>
     </row>
@@ -17554,42 +17554,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.963 (-0.010%)</t>
+          <t>0.963 (99.990%)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.963 (0.010%)</t>
+          <t>0.963 (100.010%)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>0.963 (-0.042%)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.963 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.963 (0.000%)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0.963 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>0.963 (-0.031%)</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0.963 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.963 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>0.963 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0.963 (-0.021%)</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.926 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -17614,42 +17614,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.965 (100.031%)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.965 (-0.052%)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.965 (99.979%)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>0.965 (0.000%)</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.965 (0.031%)</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.965 (-0.021%)</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0.965 (-0.021%)</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.965 (-0.021%)</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.965 (0.010%)</t>
+          <t>0.965 (100.010%)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.965 (0.000%)</t>
+          <t>0.965 (-0.010%)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.930 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -17674,42 +17674,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.965 (0.000%)</t>
+          <t>0.965 (100.000%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.965 (0.052%)</t>
+          <t>0.965 (100.052%)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.964 (-0.031%)</t>
+          <t>0.964 (-0.083%)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.965 (0.021%)</t>
+          <t>0.965 (100.021%)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.962 (-0.238%)</t>
+          <t>0.962 (-0.259%)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.965 (0.062%)</t>
+          <t>0.965 (100.062%)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.965 (-0.010%)</t>
+          <t>0.965 (-0.073%)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.002 (0.25%)</t>
+          <t>1.930 (200.07%)</t>
         </is>
       </c>
     </row>
@@ -17734,42 +17734,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.964 (-0.010%)</t>
+          <t>0.964 (99.990%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.965 (0.073%)</t>
+          <t>0.965 (100.073%)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.964 (0.031%)</t>
+          <t>0.964 (-0.041%)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.965 (0.041%)</t>
+          <t>0.965 (100.041%)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.966 (0.176%)</t>
+          <t>0.966 (0.135%)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.965 (0.114%)</t>
+          <t>0.965 (100.114%)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.965 (0.052%)</t>
+          <t>0.965 (-0.062%)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.002 (0.23%)</t>
+          <t>1.929 (200.11%)</t>
         </is>
       </c>
     </row>
@@ -17794,42 +17794,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.801 (0.000%)</t>
+          <t>0.801 (100.000%)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.803 (0.200%)</t>
+          <t>0.803 (100.200%)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.798 (-0.474%)</t>
+          <t>0.798 (-0.674%)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.801 (-0.012%)</t>
+          <t>0.801 (99.988%)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.801 (-0.075%)</t>
+          <t>0.801 (-0.062%)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.802 (0.125%)</t>
+          <t>0.802 (100.125%)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.801 (-0.037%)</t>
+          <t>0.801 (-0.162%)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.004 (0.54%)</t>
+          <t>1.604 (200.16%)</t>
         </is>
       </c>
     </row>
@@ -17854,42 +17854,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.824 (-0.049%)</t>
+          <t>0.824 (99.951%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.829 (0.509%)</t>
+          <t>0.829 (100.509%)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.819 (-0.728%)</t>
+          <t>0.819 (-1.237%)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.825 (-0.012%)</t>
+          <t>0.825 (99.988%)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.824 (-0.049%)</t>
+          <t>0.824 (-0.036%)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.825 (0.085%)</t>
+          <t>0.825 (100.085%)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.825 (-0.024%)</t>
+          <t>0.825 (-0.109%)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.007 (0.90%)</t>
+          <t>1.652 (200.27%)</t>
         </is>
       </c>
     </row>
@@ -17914,42 +17914,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.845 (-0.024%)</t>
+          <t>0.845 (99.976%)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.850 (0.627%)</t>
+          <t>0.850 (100.627%)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.840 (-0.616%)</t>
+          <t>0.840 (-1.243%)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.845 (-0.024%)</t>
+          <t>0.845 (99.976%)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.845 (0.047%)</t>
+          <t>0.845 (0.071%)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
+          <t>0.845 (99.988%)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
           <t>0.845 (-0.012%)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0.845 (-0.024%)</t>
-        </is>
-      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.007 (0.88%)</t>
+          <t>1.692 (200.28%)</t>
         </is>
       </c>
     </row>
@@ -17974,42 +17974,42 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>0.866 (99.919%)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.870 (100.415%)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.865 (-0.554%)</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.866 (99.977%)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.866 (-0.012%)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0.867 (100.058%)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
           <t>0.866 (-0.081%)</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.870 (0.415%)</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.865 (-0.138%)</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>0.866 (-0.023%)</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0.866 (-0.035%)</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>0.867 (0.058%)</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0.866 (-0.023%)</t>
-        </is>
-      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.004 (0.45%)</t>
+          <t>1.735 (200.19%)</t>
         </is>
       </c>
     </row>
@@ -18034,42 +18034,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.884 (-0.057%)</t>
+          <t>0.884 (99.943%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.886 (0.158%)</t>
+          <t>0.886 (100.158%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
+          <t>0.884 (-0.204%)</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.884 (99.955%)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0.884 (0.045%)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0.885 (100.023%)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
           <t>0.884 (-0.045%)</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>0.884 (-0.045%)</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0.884 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>0.885 (0.023%)</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0.884 (-0.023%)</t>
-        </is>
-      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>1.769 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -18094,42 +18094,42 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.900 (-0.022%)</t>
+          <t>0.900 (99.978%)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.900 (0.022%)</t>
+          <t>0.900 (100.022%)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
+          <t>0.900 (-0.033%)</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.900 (100.011%)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>0.900 (-0.011%)</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>0.900 (0.011%)</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0.900 (0.000%)</t>
-        </is>
-      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.900 (0.022%)</t>
+          <t>0.900 (100.022%)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.900 (0.011%)</t>
+          <t>0.900 (-0.011%)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.800 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -18154,32 +18154,32 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.903 (0.000%)</t>
+          <t>0.903 (100.000%)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.900 (-0.343%)</t>
+          <t>0.900 (99.657%)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.903 (-0.011%)</t>
+          <t>0.903 (0.332%)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.903 (0.011%)</t>
+          <t>0.903 (100.011%)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.904 (0.066%)</t>
+          <t>0.904 (0.055%)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.903 (0.000%)</t>
+          <t>0.903 (100.000%)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -18189,7 +18189,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.003 (0.35%)</t>
+          <t>1.805 (199.83%)</t>
         </is>
       </c>
     </row>
@@ -18214,42 +18214,42 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.903 (0.033%)</t>
+          <t>0.903 (100.033%)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.903 (-0.066%)</t>
+          <t>0.903 (99.934%)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.903 (0.022%)</t>
+          <t>0.903 (0.089%)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.903 (0.011%)</t>
+          <t>0.903 (100.011%)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.908 (0.487%)</t>
+          <t>0.908 (0.476%)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.903 (-0.011%)</t>
+          <t>0.903 (99.989%)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.903 (-0.033%)</t>
+          <t>0.903 (-0.022%)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.004 (0.49%)</t>
+          <t>1.806 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -18274,22 +18274,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.920 (-0.184%)</t>
+          <t>0.920 (99.816%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.924 (0.184%)</t>
+          <t>0.924 (100.184%)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.921 (-0.130%)</t>
+          <t>0.921 (-0.314%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.922 (0.000%)</t>
+          <t>0.922 (100.000%)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -18299,7 +18299,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.922 (0.000%)</t>
+          <t>0.922 (100.000%)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -18309,7 +18309,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.007 (0.74%)</t>
+          <t>1.844 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -18445,7 +18445,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.006 (0.61%)</t>
+          <t>0.005 (0.52%)</t>
         </is>
       </c>
     </row>
@@ -18505,7 +18505,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.003 (0.33%)</t>
+          <t>0.003 (0.26%)</t>
         </is>
       </c>
     </row>
@@ -18565,7 +18565,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.003 (0.30%)</t>
+          <t>0.002 (0.18%)</t>
         </is>
       </c>
     </row>
@@ -18625,7 +18625,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.003 (0.33%)</t>
+          <t>0.003 (0.31%)</t>
         </is>
       </c>
     </row>
@@ -18925,7 +18925,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.007 (0.68%)</t>
+          <t>0.007 (0.67%)</t>
         </is>
       </c>
     </row>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.008 (0.79%)</t>
+          <t>0.008 (0.77%)</t>
         </is>
       </c>
     </row>
@@ -19045,7 +19045,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.004 (0.43%)</t>
+          <t>0.004 (0.41%)</t>
         </is>
       </c>
     </row>
@@ -19105,7 +19105,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.007 (0.68%)</t>
+          <t>0.007 (0.67%)</t>
         </is>
       </c>
     </row>
@@ -19165,7 +19165,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.004 (0.43%)</t>
+          <t>0.004 (0.41%)</t>
         </is>
       </c>
     </row>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.002 (0.15%)</t>
+          <t>0.001 (0.11%)</t>
         </is>
       </c>
     </row>
@@ -19405,7 +19405,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>0.002 (0.17%)</t>
         </is>
       </c>
     </row>
@@ -19465,7 +19465,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.010 (1.03%)</t>
+          <t>0.010 (1.02%)</t>
         </is>
       </c>
     </row>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.004 (0.45%)</t>
+          <t>0.004 (0.44%)</t>
         </is>
       </c>
     </row>
@@ -19585,7 +19585,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.003 (0.31%)</t>
+          <t>0.002 (0.25%)</t>
         </is>
       </c>
     </row>
@@ -19705,7 +19705,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>0.002 (0.21%)</t>
         </is>
       </c>
     </row>
@@ -19765,7 +19765,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>0.001 (0.07%)</t>
         </is>
       </c>
     </row>
@@ -19825,7 +19825,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -19945,7 +19945,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.002 (0.24%)</t>
+          <t>0.002 (0.18%)</t>
         </is>
       </c>
     </row>
@@ -20005,7 +20005,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.009 (0.94%)</t>
+          <t>0.009 (0.93%)</t>
         </is>
       </c>
     </row>
@@ -20065,7 +20065,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.013 (1.37%)</t>
+          <t>0.013 (1.33%)</t>
         </is>
       </c>
     </row>
@@ -20125,7 +20125,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.004 (0.46%)</t>
+          <t>0.004 (0.45%)</t>
         </is>
       </c>
     </row>
@@ -20185,7 +20185,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.005 (0.57%)</t>
+          <t>0.005 (0.55%)</t>
         </is>
       </c>
     </row>
@@ -20485,7 +20485,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.013 (1.32%)</t>
+          <t>0.011 (1.16%)</t>
         </is>
       </c>
     </row>
@@ -20545,7 +20545,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.030 (3.18%)</t>
+          <t>0.030 (3.17%)</t>
         </is>
       </c>
     </row>
@@ -20681,7 +20681,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.018 (2.29%)</t>
+          <t>0.015 (1.91%)</t>
         </is>
       </c>
     </row>
@@ -20741,7 +20741,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.024 (2.88%)</t>
+          <t>0.019 (2.31%)</t>
         </is>
       </c>
     </row>
@@ -20801,7 +20801,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.022 (2.53%)</t>
+          <t>0.016 (1.84%)</t>
         </is>
       </c>
     </row>
@@ -20861,7 +20861,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.010 (1.12%)</t>
+          <t>0.009 (0.98%)</t>
         </is>
       </c>
     </row>
@@ -21101,7 +21101,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -21161,7 +21161,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.003 (0.31%)</t>
+          <t>0.003 (0.27%)</t>
         </is>
       </c>
     </row>
@@ -21221,7 +21221,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.013 (1.60%)</t>
+          <t>0.010 (1.20%)</t>
         </is>
       </c>
     </row>
@@ -21281,7 +21281,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.018 (2.17%)</t>
+          <t>0.015 (1.72%)</t>
         </is>
       </c>
     </row>
@@ -21341,7 +21341,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.022 (2.52%)</t>
+          <t>0.016 (1.90%)</t>
         </is>
       </c>
     </row>
@@ -21401,7 +21401,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.011 (1.30%)</t>
+          <t>0.010 (1.08%)</t>
         </is>
       </c>
     </row>
@@ -21461,7 +21461,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>0.001 (0.14%)</t>
         </is>
       </c>
     </row>
@@ -21581,7 +21581,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>0.001 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -21641,7 +21641,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -21701,7 +21701,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.007 (0.70%)</t>
+          <t>0.007 (0.69%)</t>
         </is>
       </c>
     </row>
@@ -21761,7 +21761,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.009 (1.14%)</t>
+          <t>0.009 (1.13%)</t>
         </is>
       </c>
     </row>
@@ -21821,7 +21821,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.012 (1.43%)</t>
+          <t>0.011 (1.27%)</t>
         </is>
       </c>
     </row>
@@ -21881,7 +21881,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.014 (1.66%)</t>
+          <t>0.011 (1.29%)</t>
         </is>
       </c>
     </row>
@@ -21941,7 +21941,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.010 (1.16%)</t>
+          <t>0.009 (1.02%)</t>
         </is>
       </c>
     </row>
@@ -22121,7 +22121,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -22181,7 +22181,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -22241,7 +22241,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.005 (0.53%)</t>
+          <t>0.005 (0.51%)</t>
         </is>
       </c>
     </row>
@@ -22301,7 +22301,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.017 (2.30%)</t>
+          <t>0.017 (2.24%)</t>
         </is>
       </c>
     </row>
@@ -22361,7 +22361,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.008 (0.97%)</t>
+          <t>0.007 (0.88%)</t>
         </is>
       </c>
     </row>
@@ -22421,7 +22421,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.007 (0.87%)</t>
+          <t>0.005 (0.69%)</t>
         </is>
       </c>
     </row>
@@ -22481,7 +22481,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.006 (0.70%)</t>
+          <t>0.005 (0.64%)</t>
         </is>
       </c>
     </row>
@@ -22661,7 +22661,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.004 (0.48%)</t>
+          <t>0.004 (0.42%)</t>
         </is>
       </c>
     </row>
@@ -22721,7 +22721,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.007 (0.80%)</t>
+          <t>0.006 (0.72%)</t>
         </is>
       </c>
     </row>
@@ -22781,7 +22781,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.020 (2.25%)</t>
+          <t>0.019 (2.17%)</t>
         </is>
       </c>
     </row>
@@ -22882,42 +22882,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.820 (-0.024%)</t>
+          <t>0.820 (99.976%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.831 (1.268%)</t>
+          <t>0.831 (101.268%)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.806 (-1.682%)</t>
+          <t>0.806 (-2.950%)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.820 (-0.037%)</t>
+          <t>0.820 (99.963%)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.821 (0.134%)</t>
+          <t>0.821 (0.171%)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>0.820 (99.988%)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>0.820 (-0.012%)</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.820 (-0.024%)</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.017 (2.11%)</t>
+          <t>1.646 (200.60%)</t>
         </is>
       </c>
     </row>
@@ -22942,42 +22942,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.852 (0.000%)</t>
+          <t>0.852 (100.000%)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.870 (2.018%)</t>
+          <t>0.870 (102.018%)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.835 (-2.100%)</t>
+          <t>0.835 (-4.118%)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.856 (0.446%)</t>
+          <t>0.856 (100.446%)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.852 (0.000%)</t>
+          <t>0.852 (-0.446%)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.853 (0.035%)</t>
+          <t>0.853 (100.035%)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.853 (0.047%)</t>
+          <t>0.853 (0.012%)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.025 (2.95%)</t>
+          <t>1.716 (201.26%)</t>
         </is>
       </c>
     </row>
@@ -23002,42 +23002,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.874 (0.000%)</t>
+          <t>0.874 (100.000%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.891 (1.969%)</t>
+          <t>0.891 (101.969%)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.859 (-1.694%)</t>
+          <t>0.859 (-3.663%)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.874 (0.023%)</t>
+          <t>0.874 (100.023%)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.873 (-0.023%)</t>
+          <t>0.873 (-0.046%)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.874 (0.046%)</t>
+          <t>0.874 (100.046%)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.874 (0.023%)</t>
+          <t>0.874 (-0.023%)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.023 (2.60%)</t>
+          <t>1.756 (201.03%)</t>
         </is>
       </c>
     </row>
@@ -23062,32 +23062,32 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.904 (0.000%)</t>
+          <t>0.904 (100.000%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.911 (0.774%)</t>
+          <t>0.911 (100.774%)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.899 (-0.509%)</t>
+          <t>0.899 (-1.283%)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.904 (-0.022%)</t>
+          <t>0.904 (99.978%)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.904 (0.011%)</t>
+          <t>0.904 (0.033%)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.904 (0.000%)</t>
+          <t>0.904 (100.000%)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -23097,7 +23097,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.008 (0.93%)</t>
+          <t>1.811 (200.38%)</t>
         </is>
       </c>
     </row>
@@ -23122,42 +23122,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>0.943 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.945 (100.127%)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.943 (-0.180%)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.943 (99.989%)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>0.943 (0.000%)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.945 (0.127%)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.943 (-0.053%)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.943 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.943 (-0.011%)</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.943 (0.011%)</t>
+          <t>0.943 (100.011%)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.943 (-0.011%)</t>
+          <t>0.943 (-0.021%)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>1.887 (200.06%)</t>
         </is>
       </c>
     </row>
@@ -23182,42 +23182,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.965 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.965 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>0.965 (0.000%)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.965 (0.021%)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.965 (0.031%)</t>
+          <t>0.965 (100.031%)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.965 (0.000%)</t>
+          <t>0.965 (-0.031%)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.930 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -23242,42 +23242,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>0.968 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.969 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.968 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.968 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>0.968 (0.000%)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.969 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.968 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.969 (0.021%)</t>
+          <t>0.969 (100.021%)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.968 (0.000%)</t>
+          <t>0.968 (-0.021%)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.937 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -23302,22 +23302,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.970 (0.000%)</t>
+          <t>0.970 (100.000%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.971 (0.021%)</t>
+          <t>0.971 (100.021%)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.970 (-0.021%)</t>
+          <t>0.970 (-0.041%)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.970 (0.000%)</t>
+          <t>0.970 (100.000%)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -23327,17 +23327,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.971 (0.021%)</t>
+          <t>0.971 (100.021%)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.970 (0.010%)</t>
+          <t>0.970 (-0.010%)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.941 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -23362,42 +23362,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>0.968 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.968 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.968 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.968 (100.021%)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>0.968 (0.000%)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.968 (0.021%)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.968 (0.021%)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.968 (0.021%)</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.968 (0.010%)</t>
+          <t>0.968 (100.010%)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.968 (-0.010%)</t>
+          <t>0.968 (-0.021%)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.936 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -23422,42 +23422,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.824 (0.000%)</t>
+          <t>0.824 (100.000%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.830 (0.777%)</t>
+          <t>0.830 (100.777%)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.815 (-1.080%)</t>
+          <t>0.815 (-1.857%)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.824 (-0.049%)</t>
+          <t>0.824 (99.951%)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.825 (0.133%)</t>
+          <t>0.825 (0.182%)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.824 (-0.049%)</t>
+          <t>0.824 (99.951%)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.824 (0.012%)</t>
+          <t>0.824 (0.061%)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.011 (1.34%)</t>
+          <t>1.651 (200.34%)</t>
         </is>
       </c>
     </row>
@@ -23482,42 +23482,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.854 (-0.047%)</t>
+          <t>0.854 (99.953%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.866 (1.358%)</t>
+          <t>0.866 (101.358%)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.839 (-1.756%)</t>
+          <t>0.839 (-3.114%)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.854 (-0.023%)</t>
+          <t>0.854 (99.977%)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.853 (-0.105%)</t>
+          <t>0.853 (-0.082%)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.854 (0.023%)</t>
+          <t>0.854 (100.023%)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.854 (-0.012%)</t>
+          <t>0.854 (-0.035%)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.019 (2.22%)</t>
+          <t>1.714 (200.66%)</t>
         </is>
       </c>
     </row>
@@ -23542,42 +23542,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.865 (-0.483%)</t>
+          <t>0.865 (99.517%)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.883 (1.576%)</t>
+          <t>0.883 (101.576%)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.849 (-2.347%)</t>
+          <t>0.849 (-3.924%)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.865 (-0.449%)</t>
+          <t>0.865 (99.551%)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.869 (-0.023%)</t>
+          <t>0.869 (0.426%)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.865 (-0.437%)</t>
+          <t>0.865 (99.563%)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.865 (-0.437%)</t>
+          <t>0.865 (0.000%)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.026 (2.97%)</t>
+          <t>1.739 (200.11%)</t>
         </is>
       </c>
     </row>
@@ -23602,42 +23602,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.886 (-0.315%)</t>
+          <t>0.886 (99.685%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.897 (0.934%)</t>
+          <t>0.897 (100.934%)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.885 (-0.495%)</t>
+          <t>0.885 (-1.428%)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.889 (-0.022%)</t>
+          <t>0.889 (99.978%)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.886 (-0.315%)</t>
+          <t>0.886 (-0.292%)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.889 (-0.034%)</t>
+          <t>0.889 (99.966%)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.889 (0.000%)</t>
+          <t>0.889 (0.034%)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.010 (1.15%)</t>
+          <t>1.781 (200.28%)</t>
         </is>
       </c>
     </row>
@@ -23662,42 +23662,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.929 (0.011%)</t>
+          <t>0.929 (100.011%)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.931 (0.258%)</t>
+          <t>0.931 (100.258%)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.929 (-0.043%)</t>
+          <t>0.929 (-0.301%)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.929 (0.032%)</t>
+          <t>0.929 (100.032%)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.929 (0.032%)</t>
+          <t>0.929 (0.000%)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.930 (0.075%)</t>
+          <t>0.930 (100.075%)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.929 (0.043%)</t>
+          <t>0.929 (-0.032%)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.003 (0.28%)</t>
+          <t>1.860 (200.19%)</t>
         </is>
       </c>
     </row>
@@ -23722,42 +23722,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.957 (0.000%)</t>
+          <t>0.957 (100.000%)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.957 (0.021%)</t>
+          <t>0.957 (100.021%)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>0.957 (-0.031%)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>0.957 (-0.010%)</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.957 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.957 (-0.010%)</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.957 (0.031%)</t>
+          <t>0.957 (100.031%)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.957 (-0.010%)</t>
+          <t>0.957 (-0.042%)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.914 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -23782,22 +23782,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.959 (0.000%)</t>
+          <t>0.959 (100.000%)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.960 (0.021%)</t>
+          <t>0.960 (100.021%)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.959 (-0.010%)</t>
+          <t>0.959 (-0.031%)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.959 (0.000%)</t>
+          <t>0.959 (100.000%)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -23807,17 +23807,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.960 (0.031%)</t>
+          <t>0.960 (100.031%)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.959 (-0.010%)</t>
+          <t>0.959 (-0.042%)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.919 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -23842,42 +23842,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.959 (0.084%)</t>
+          <t>0.959 (100.084%)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.959 (0.115%)</t>
+          <t>0.959 (100.115%)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.959 (0.063%)</t>
+          <t>0.959 (-0.052%)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.959 (0.104%)</t>
+          <t>0.959 (100.104%)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.959 (0.136%)</t>
+          <t>0.959 (0.031%)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.959 (0.104%)</t>
+          <t>0.959 (100.104%)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.959 (0.115%)</t>
+          <t>0.959 (0.010%)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.003 (0.28%)</t>
+          <t>1.918 (200.20%)</t>
         </is>
       </c>
     </row>
@@ -23902,42 +23902,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.958 (-0.073%)</t>
+          <t>0.958 (99.927%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.958 (-0.073%)</t>
+          <t>0.958 (99.927%)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.960 (0.073%)</t>
+          <t>0.960 (0.146%)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.959 (0.031%)</t>
+          <t>0.959 (100.031%)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.961 (0.167%)</t>
+          <t>0.961 (0.136%)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.959 (-0.052%)</t>
+          <t>0.959 (99.948%)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.960 (0.042%)</t>
+          <t>0.960 (0.094%)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>1.917 (199.92%)</t>
         </is>
       </c>
     </row>
@@ -23962,42 +23962,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.811 (-0.111%)</t>
+          <t>0.811 (99.889%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.817 (0.529%)</t>
+          <t>0.817 (100.529%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.805 (-0.849%)</t>
+          <t>0.805 (-1.379%)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.812 (-0.025%)</t>
+          <t>0.812 (99.975%)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.812 (-0.012%)</t>
+          <t>0.812 (0.012%)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.812 (0.012%)</t>
+          <t>0.812 (100.012%)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.812 (-0.049%)</t>
+          <t>0.812 (-0.062%)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.008 (1.01%)</t>
+          <t>1.626 (200.20%)</t>
         </is>
       </c>
     </row>
@@ -24022,42 +24022,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.836 (-0.523%)</t>
+          <t>0.836 (99.477%)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.848 (0.892%)</t>
+          <t>0.848 (100.892%)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.830 (-1.285%)</t>
+          <t>0.830 (-2.177%)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.840 (-0.036%)</t>
+          <t>0.840 (99.964%)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.841 (-0.024%)</t>
+          <t>0.841 (0.012%)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.841 (0.012%)</t>
+          <t>0.841 (100.012%)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.841 (-0.024%)</t>
+          <t>0.841 (-0.036%)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.014 (1.65%)</t>
+          <t>1.683 (200.18%)</t>
         </is>
       </c>
     </row>
@@ -24082,32 +24082,32 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.859 (-0.058%)</t>
+          <t>0.859 (99.942%)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.869 (1.082%)</t>
+          <t>0.869 (101.082%)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.849 (-1.291%)</t>
+          <t>0.849 (-2.373%)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.860 (-0.023%)</t>
+          <t>0.860 (99.977%)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.859 (-0.058%)</t>
+          <t>0.859 (-0.035%)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.860 (0.000%)</t>
+          <t>0.860 (100.000%)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -24117,7 +24117,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.014 (1.69%)</t>
+          <t>1.724 (200.50%)</t>
         </is>
       </c>
     </row>
@@ -24142,42 +24142,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.881 (-0.068%)</t>
+          <t>0.881 (99.932%)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.890 (0.907%)</t>
+          <t>0.890 (100.907%)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.878 (-0.374%)</t>
+          <t>0.878 (-1.282%)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.881 (-0.023%)</t>
+          <t>0.881 (99.977%)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.882 (0.011%)</t>
+          <t>0.882 (0.034%)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.882 (0.011%)</t>
+          <t>0.882 (100.011%)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.882 (0.000%)</t>
+          <t>0.882 (-0.011%)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.009 (0.98%)</t>
+          <t>1.767 (200.42%)</t>
         </is>
       </c>
     </row>
@@ -24202,42 +24202,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.914 (0.000%)</t>
+          <t>0.914 (100.000%)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.916 (0.230%)</t>
+          <t>0.916 (100.230%)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.914 (-0.055%)</t>
+          <t>0.914 (-0.284%)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.915 (0.044%)</t>
+          <t>0.915 (100.044%)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.914 (0.022%)</t>
+          <t>0.914 (-0.022%)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.915 (0.066%)</t>
+          <t>0.915 (100.066%)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.915 (0.044%)</t>
+          <t>0.915 (-0.022%)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.002 (0.25%)</t>
+          <t>1.830 (200.17%)</t>
         </is>
       </c>
     </row>
@@ -24262,42 +24262,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>0.937 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.937 (100.011%)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.937 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.937 (99.989%)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>0.937 (0.000%)</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.937 (0.011%)</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.937 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0.937 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.937 (-0.011%)</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.937 (0.021%)</t>
+          <t>0.937 (100.021%)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.937 (-0.011%)</t>
+          <t>0.937 (-0.032%)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.874 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -24322,42 +24322,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.941 (0.074%)</t>
+          <t>0.941 (100.074%)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.941 (0.096%)</t>
+          <t>0.941 (100.096%)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.940 (0.064%)</t>
+          <t>0.940 (-0.032%)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>0.940 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>0.940 (0.000%)</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.940 (0.000%)</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.940 (0.021%)</t>
+          <t>0.940 (100.021%)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.940 (-0.011%)</t>
+          <t>0.940 (-0.032%)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>1.881 (200.10%)</t>
         </is>
       </c>
     </row>
@@ -24382,42 +24382,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.940 (0.000%)</t>
+          <t>0.940 (100.000%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.940 (0.053%)</t>
+          <t>0.940 (100.053%)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.940 (0.000%)</t>
+          <t>0.940 (-0.053%)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.937 (-0.277%)</t>
+          <t>0.937 (99.723%)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.940 (0.000%)</t>
+          <t>0.940 (0.277%)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.940 (0.032%)</t>
+          <t>0.940 (100.032%)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.940 (-0.011%)</t>
+          <t>0.940 (-0.043%)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.003 (0.28%)</t>
+          <t>1.879 (199.90%)</t>
         </is>
       </c>
     </row>
@@ -24442,22 +24442,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.937 (0.032%)</t>
+          <t>0.937 (100.032%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.937 (0.085%)</t>
+          <t>0.937 (100.085%)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.936 (0.011%)</t>
+          <t>0.936 (-0.075%)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.936 (0.000%)</t>
+          <t>0.936 (100.000%)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -24467,17 +24467,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.936 (-0.064%)</t>
+          <t>0.936 (99.936%)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.936 (-0.032%)</t>
+          <t>0.936 (0.032%)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>1.873 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -24502,42 +24502,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.753 (-0.159%)</t>
+          <t>0.753 (99.841%)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.755 (0.186%)</t>
+          <t>0.755 (100.186%)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.749 (-0.716%)</t>
+          <t>0.749 (-0.902%)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.754 (-0.027%)</t>
+          <t>0.754 (99.973%)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.753 (-0.146%)</t>
+          <t>0.753 (-0.119%)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.754 (0.053%)</t>
+          <t>0.754 (100.053%)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.754 (-0.040%)</t>
+          <t>0.754 (-0.093%)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.006 (0.77%)</t>
+          <t>1.508 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -24562,42 +24562,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>0.782 (99.962%)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.787 (100.498%)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.772 (-1.853%)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.782 (99.974%)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>0.782 (-0.038%)</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.787 (0.498%)</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.772 (-1.354%)</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0.782 (-0.026%)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0.783 (100.026%)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>0.782 (-0.064%)</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>0.783 (0.026%)</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0.782 (-0.038%)</t>
-        </is>
-      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.011 (1.45%)</t>
+          <t>1.567 (200.23%)</t>
         </is>
       </c>
     </row>
@@ -24622,42 +24622,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.800 (-0.012%)</t>
+          <t>0.800 (99.988%)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.808 (0.987%)</t>
+          <t>0.808 (100.987%)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.794 (-0.738%)</t>
+          <t>0.794 (-1.725%)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.800 (0.012%)</t>
+          <t>0.800 (100.012%)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.803 (0.412%)</t>
+          <t>0.803 (0.400%)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.800 (0.050%)</t>
+          <t>0.800 (100.050%)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.800 (0.000%)</t>
+          <t>0.800 (-0.050%)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.010 (1.30%)</t>
+          <t>1.604 (200.52%)</t>
         </is>
       </c>
     </row>
@@ -24682,42 +24682,42 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.823 (-0.291%)</t>
+          <t>0.823 (99.709%)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.830 (0.582%)</t>
+          <t>0.830 (100.582%)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.824 (-0.218%)</t>
+          <t>0.824 (-0.800%)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.825 (-0.012%)</t>
+          <t>0.825 (99.988%)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.825 (0.000%)</t>
+          <t>0.825 (0.012%)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.826 (0.048%)</t>
+          <t>0.826 (100.048%)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.826 (0.024%)</t>
+          <t>0.826 (-0.024%)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.006 (0.69%)</t>
+          <t>1.652 (200.16%)</t>
         </is>
       </c>
     </row>
@@ -24742,42 +24742,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.853 (-0.105%)</t>
+          <t>0.853 (99.895%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.856 (0.199%)</t>
+          <t>0.856 (100.199%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.854 (-0.047%)</t>
+          <t>0.854 (-0.246%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>0.854 (100.012%)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>0.854 (0.012%)</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0.854 (0.023%)</t>
-        </is>
-      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.855 (0.047%)</t>
+          <t>0.855 (100.047%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.854 (0.023%)</t>
+          <t>0.854 (-0.023%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.002 (0.24%)</t>
+          <t>1.709 (200.08%)</t>
         </is>
       </c>
     </row>
@@ -24802,42 +24802,42 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>0.877 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.877 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>0.877 (0.000%)</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.877 (99.989%)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>0.877 (0.000%)</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.877 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>0.877 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0.877 (-0.011%)</t>
-        </is>
-      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.877 (0.011%)</t>
+          <t>0.877 (100.011%)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.877 (-0.011%)</t>
+          <t>0.877 (-0.023%)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.755 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -24862,12 +24862,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.881 (0.000%)</t>
+          <t>0.881 (100.000%)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.881 (0.000%)</t>
+          <t>0.881 (100.000%)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -24877,7 +24877,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.881 (0.000%)</t>
+          <t>0.881 (100.000%)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -24887,17 +24887,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.882 (0.057%)</t>
+          <t>0.882 (100.057%)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.881 (0.011%)</t>
+          <t>0.881 (-0.045%)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.004 (0.42%)</t>
+          <t>1.762 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -24922,42 +24922,42 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.885 (0.000%)</t>
+          <t>0.885 (100.000%)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.886 (0.102%)</t>
+          <t>0.886 (100.102%)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.886 (0.079%)</t>
+          <t>0.886 (-0.023%)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.885 (0.023%)</t>
+          <t>0.885 (100.023%)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.884 (-0.124%)</t>
+          <t>0.884 (-0.147%)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.885 (0.045%)</t>
+          <t>0.885 (100.045%)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.885 (-0.011%)</t>
+          <t>0.885 (-0.056%)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>1.771 (200.08%)</t>
         </is>
       </c>
     </row>
@@ -24982,42 +24982,42 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.913 (0.783%)</t>
+          <t>0.913 (100.783%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.911 (0.530%)</t>
+          <t>0.911 (100.530%)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.906 (-0.055%)</t>
+          <t>0.906 (-0.585%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.907 (0.121%)</t>
+          <t>0.907 (100.121%)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.906 (0.011%)</t>
+          <t>0.906 (-0.110%)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.900 (-0.662%)</t>
+          <t>0.900 (99.338%)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.907 (0.044%)</t>
+          <t>0.907 (0.706%)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.011 (1.16%)</t>
+          <t>1.816 (200.39%)</t>
         </is>
       </c>
     </row>
@@ -25153,7 +25153,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.003 (0.34%)</t>
+          <t>0.003 (0.29%)</t>
         </is>
       </c>
     </row>
@@ -25213,7 +25213,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.006 (0.61%)</t>
+          <t>0.003 (0.26%)</t>
         </is>
       </c>
     </row>
@@ -25273,7 +25273,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.003 (0.28%)</t>
+          <t>0.002 (0.17%)</t>
         </is>
       </c>
     </row>
@@ -25333,7 +25333,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.002 (0.24%)</t>
+          <t>0.002 (0.22%)</t>
         </is>
       </c>
     </row>
@@ -25393,7 +25393,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -25453,7 +25453,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>0.000 (0.02%)</t>
         </is>
       </c>
     </row>
@@ -25513,7 +25513,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -25633,7 +25633,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.003 (0.31%)</t>
+          <t>0.003 (0.27%)</t>
         </is>
       </c>
     </row>
@@ -25693,7 +25693,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.007 (0.68%)</t>
+          <t>0.007 (0.67%)</t>
         </is>
       </c>
     </row>
@@ -25813,7 +25813,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.010 (0.98%)</t>
+          <t>0.009 (0.92%)</t>
         </is>
       </c>
     </row>
@@ -25873,7 +25873,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.004 (0.44%)</t>
+          <t>0.004 (0.42%)</t>
         </is>
       </c>
     </row>
@@ -25933,7 +25933,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>0.001 (0.09%)</t>
         </is>
       </c>
     </row>
@@ -26053,7 +26053,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -26113,7 +26113,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.003 (0.27%)</t>
+          <t>0.002 (0.23%)</t>
         </is>
       </c>
     </row>
@@ -26233,7 +26233,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.010 (1.03%)</t>
+          <t>0.010 (0.96%)</t>
         </is>
       </c>
     </row>
@@ -26293,7 +26293,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.003 (0.31%)</t>
+          <t>0.002 (0.19%)</t>
         </is>
       </c>
     </row>
@@ -26353,7 +26353,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>0.001 (0.09%)</t>
         </is>
       </c>
     </row>
@@ -26413,7 +26413,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.002 (0.21%)</t>
+          <t>0.002 (0.19%)</t>
         </is>
       </c>
     </row>
@@ -26593,7 +26593,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>0.001 (0.12%)</t>
         </is>
       </c>
     </row>
@@ -26713,7 +26713,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.006 (0.56%)</t>
+          <t>0.005 (0.53%)</t>
         </is>
       </c>
     </row>
@@ -26773,7 +26773,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.021 (2.11%)</t>
+          <t>0.020 (2.00%)</t>
         </is>
       </c>
     </row>
@@ -26893,7 +26893,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.007 (0.67%)</t>
+          <t>0.005 (0.49%)</t>
         </is>
       </c>
     </row>
@@ -26953,7 +26953,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.003 (0.28%)</t>
+          <t>0.003 (0.27%)</t>
         </is>
       </c>
     </row>
@@ -27013,7 +27013,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>0.001 (0.12%)</t>
         </is>
       </c>
     </row>
@@ -27133,7 +27133,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.008 (0.84%)</t>
+          <t>0.008 (0.79%)</t>
         </is>
       </c>
     </row>
@@ -27193,7 +27193,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.009 (0.90%)</t>
+          <t>0.008 (0.77%)</t>
         </is>
       </c>
     </row>
@@ -27253,7 +27253,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.022 (2.26%)</t>
+          <t>0.021 (2.16%)</t>
         </is>
       </c>
     </row>
